--- a/Software-Engineering/Stage 4/GanttChartStage4.xlsx
+++ b/Software-Engineering/Stage 4/GanttChartStage4.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Same6\Documents\GitHub\26c\Software-Engineering\Stage 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Planned Progress" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planned Progress" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
-  <si>
-    <t>Planned Progress</t>
-  </si>
   <si>
     <t>Task</t>
   </si>
@@ -88,33 +93,33 @@
   <si>
     <t>Actual Progress</t>
   </si>
+  <si>
+    <t>Planned progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -123,7 +128,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -132,63 +137,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -197,7 +198,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -211,17 +212,22 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -229,16 +235,104 @@
               <a:srgbClr val="5B9BD5"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Task</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>create test document</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>create JUnit tests</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>improve UML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pair programming authorisation, document</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>read personal details</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>create personal details</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>amend personal details</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Run working JUnit stage 4 tests</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Submit stage 4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Develop GUI</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E11-41DC-938C-86617EE9851F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -246,6 +340,9 @@
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -253,17 +350,114 @@
               <a:srgbClr val="ED7D31"/>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Task</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>create test document</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>create JUnit tests</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>improve UML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>pair programming authorisation, document</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>read personal details</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>create personal details</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>amend personal details</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Run working JUnit stage 4 tests</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Submit stage 4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Develop GUI</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42804</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E11-41DC-938C-86617EE9851F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="900915326"/>
         <c:axId val="815774438"/>
@@ -275,20 +469,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815774438"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="815774438"/>
@@ -307,6 +511,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -318,16 +524,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="900">
+              <a:defRPr sz="900" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="900915326"/>
         <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -336,6 +544,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -346,27 +556,33 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8610600" cy="6276975"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -374,7 +590,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -383,21 +599,317 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL958"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.88"/>
-    <col customWidth="1" min="2" max="7" width="9.38"/>
-    <col customWidth="1" min="8" max="38" width="9.5"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="38" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -437,21 +949,21 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -487,21 +999,21 @@
       <c r="AK2" s="6"/>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="C3" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="8">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -537,21 +1049,21 @@
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="C4" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -587,21 +1099,21 @@
       <c r="AK4" s="6"/>
       <c r="AL4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="C5" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="8">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -637,21 +1149,21 @@
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8">
-        <v>42790.0</v>
+        <v>42790</v>
       </c>
       <c r="C6" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="8">
-        <v>42793.0</v>
+        <v>42793</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
@@ -687,21 +1199,21 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38">
       <c r="A7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8">
-        <v>42795.0</v>
+        <v>42795</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -737,21 +1249,21 @@
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C8" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="8">
-        <v>42737.0</v>
+        <v>42737</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
@@ -787,21 +1299,21 @@
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C9" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8">
-        <v>42797.0</v>
+        <v>42797</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -837,21 +1349,21 @@
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38">
       <c r="A10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8">
-        <v>42797.0</v>
+        <v>42797</v>
       </c>
       <c r="C10" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8">
-        <v>42798.0</v>
+        <v>42798</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -887,21 +1399,21 @@
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8">
-        <v>42799.0</v>
+        <v>42799</v>
       </c>
       <c r="C11" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>42800.0</v>
+        <v>42800</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
@@ -937,21 +1449,21 @@
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="8">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="C12" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="8">
-        <v>42804.0</v>
+        <v>42804</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -987,7 +1499,7 @@
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1027,9 +1539,9 @@
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38">
       <c r="A14" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -1069,21 +1581,21 @@
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38">
       <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
@@ -1119,21 +1631,21 @@
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38">
       <c r="A16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="8">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="C16" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="8">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
@@ -1169,21 +1681,21 @@
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38">
       <c r="A17" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="8">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="C17" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="8">
-        <v>42789.0</v>
+        <v>42789</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
@@ -1219,21 +1731,21 @@
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38">
       <c r="A18" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="8">
-        <v>42786.0</v>
+        <v>42786</v>
       </c>
       <c r="C18" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="8">
-        <v>42791.0</v>
+        <v>42791</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
@@ -1269,21 +1781,21 @@
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38">
       <c r="A19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="8">
-        <v>42790.0</v>
+        <v>42790</v>
       </c>
       <c r="C19" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8">
-        <v>42793.0</v>
+        <v>42793</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
@@ -1319,21 +1831,21 @@
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38">
       <c r="A20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="8">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C20" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="8">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
@@ -1369,21 +1881,21 @@
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38">
       <c r="A21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="8">
-        <v>42792.0</v>
+        <v>42792</v>
       </c>
       <c r="C21" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="8">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
@@ -1419,21 +1931,21 @@
       <c r="AK21" s="6"/>
       <c r="AL21" s="6"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38">
       <c r="A22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8">
-        <v>42793.0</v>
+        <v>42793</v>
       </c>
       <c r="C22" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="8">
-        <v>42798.0</v>
+        <v>42798</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
@@ -1469,21 +1981,21 @@
       <c r="AK22" s="6"/>
       <c r="AL22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38">
       <c r="A23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="8">
-        <v>42798.0</v>
+        <v>42798</v>
       </c>
       <c r="C23" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8">
-        <v>42799.0</v>
+        <v>42799</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
@@ -1519,21 +2031,21 @@
       <c r="AK23" s="6"/>
       <c r="AL23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8">
-        <v>42799.0</v>
+        <v>42799</v>
       </c>
       <c r="C24" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="8">
-        <v>42800.0</v>
+        <v>42800</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
@@ -1569,21 +2081,21 @@
       <c r="AK24" s="6"/>
       <c r="AL24" s="6"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38">
       <c r="A25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="8">
-        <v>42796.0</v>
+        <v>42796</v>
       </c>
       <c r="C25" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D25" s="8">
-        <v>42804.0</v>
+        <v>42804</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
@@ -1619,7 +2131,7 @@
       <c r="AK25" s="6"/>
       <c r="AL25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1659,7 +2171,7 @@
       <c r="AK26" s="6"/>
       <c r="AL26" s="6"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1699,7 +2211,7 @@
       <c r="AK27" s="6"/>
       <c r="AL27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1739,7 +2251,7 @@
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1779,7 +2291,7 @@
       <c r="AK29" s="6"/>
       <c r="AL29" s="6"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1819,7 +2331,7 @@
       <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1859,7 +2371,7 @@
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1899,7 +2411,7 @@
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1939,7 +2451,7 @@
       <c r="AK33" s="6"/>
       <c r="AL33" s="6"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1979,7 +2491,7 @@
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2019,7 +2531,7 @@
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2059,7 +2571,7 @@
       <c r="AK36" s="6"/>
       <c r="AL36" s="6"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2099,7 +2611,7 @@
       <c r="AK37" s="6"/>
       <c r="AL37" s="6"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2139,7 +2651,7 @@
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2179,7 +2691,7 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2219,7 +2731,7 @@
       <c r="AK40" s="6"/>
       <c r="AL40" s="6"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2259,7 +2771,7 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2299,7 +2811,7 @@
       <c r="AK42" s="6"/>
       <c r="AL42" s="6"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2339,7 +2851,7 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2379,7 +2891,7 @@
       <c r="AK44" s="6"/>
       <c r="AL44" s="6"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:38">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2419,7 +2931,7 @@
       <c r="AK45" s="6"/>
       <c r="AL45" s="6"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:38">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2459,7 +2971,7 @@
       <c r="AK46" s="6"/>
       <c r="AL46" s="6"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:38">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2499,7 +3011,7 @@
       <c r="AK47" s="6"/>
       <c r="AL47" s="6"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:38">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2539,7 +3051,7 @@
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:38">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2579,7 +3091,7 @@
       <c r="AK49" s="6"/>
       <c r="AL49" s="6"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:38">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2619,7 +3131,7 @@
       <c r="AK50" s="6"/>
       <c r="AL50" s="6"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:38">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2659,7 +3171,7 @@
       <c r="AK51" s="6"/>
       <c r="AL51" s="6"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:38">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2699,7 +3211,7 @@
       <c r="AK52" s="6"/>
       <c r="AL52" s="6"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:38">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2739,7 +3251,7 @@
       <c r="AK53" s="6"/>
       <c r="AL53" s="6"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:38">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2779,7 +3291,7 @@
       <c r="AK54" s="6"/>
       <c r="AL54" s="6"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:38">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2819,7 +3331,7 @@
       <c r="AK55" s="6"/>
       <c r="AL55" s="6"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:38">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2859,7 +3371,7 @@
       <c r="AK56" s="6"/>
       <c r="AL56" s="6"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:38">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2899,7 +3411,7 @@
       <c r="AK57" s="6"/>
       <c r="AL57" s="6"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:38">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2939,7 +3451,7 @@
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:38">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2979,7 +3491,7 @@
       <c r="AK59" s="6"/>
       <c r="AL59" s="6"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:38">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3019,7 +3531,7 @@
       <c r="AK60" s="6"/>
       <c r="AL60" s="6"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:38">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3059,7 +3571,7 @@
       <c r="AK61" s="6"/>
       <c r="AL61" s="6"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:38">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3099,7 +3611,7 @@
       <c r="AK62" s="6"/>
       <c r="AL62" s="6"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:38">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -3139,7 +3651,7 @@
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:38">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3179,7 +3691,7 @@
       <c r="AK64" s="6"/>
       <c r="AL64" s="6"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:38">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -3219,7 +3731,7 @@
       <c r="AK65" s="6"/>
       <c r="AL65" s="6"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:38">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3259,7 +3771,7 @@
       <c r="AK66" s="6"/>
       <c r="AL66" s="6"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:38">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3299,7 +3811,7 @@
       <c r="AK67" s="6"/>
       <c r="AL67" s="6"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:38">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3339,7 +3851,7 @@
       <c r="AK68" s="6"/>
       <c r="AL68" s="6"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:38">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3379,7 +3891,7 @@
       <c r="AK69" s="6"/>
       <c r="AL69" s="6"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:38">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3419,7 +3931,7 @@
       <c r="AK70" s="6"/>
       <c r="AL70" s="6"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:38">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3459,7 +3971,7 @@
       <c r="AK71" s="6"/>
       <c r="AL71" s="6"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:38">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3499,7 +4011,7 @@
       <c r="AK72" s="6"/>
       <c r="AL72" s="6"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:38">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3539,7 +4051,7 @@
       <c r="AK73" s="6"/>
       <c r="AL73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:38">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3579,7 +4091,7 @@
       <c r="AK74" s="6"/>
       <c r="AL74" s="6"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:38">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3619,7 +4131,7 @@
       <c r="AK75" s="6"/>
       <c r="AL75" s="6"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:38">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3659,7 +4171,7 @@
       <c r="AK76" s="6"/>
       <c r="AL76" s="6"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:38">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3699,7 +4211,7 @@
       <c r="AK77" s="6"/>
       <c r="AL77" s="6"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:38">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -3739,7 +4251,7 @@
       <c r="AK78" s="6"/>
       <c r="AL78" s="6"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:38">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -3779,7 +4291,7 @@
       <c r="AK79" s="6"/>
       <c r="AL79" s="6"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:38">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -3819,7 +4331,7 @@
       <c r="AK80" s="6"/>
       <c r="AL80" s="6"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:38">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -3859,7 +4371,7 @@
       <c r="AK81" s="6"/>
       <c r="AL81" s="6"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:38">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3899,7 +4411,7 @@
       <c r="AK82" s="6"/>
       <c r="AL82" s="6"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:38">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -3939,7 +4451,7 @@
       <c r="AK83" s="6"/>
       <c r="AL83" s="6"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:38">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -3979,7 +4491,7 @@
       <c r="AK84" s="6"/>
       <c r="AL84" s="6"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:38">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -4019,7 +4531,7 @@
       <c r="AK85" s="6"/>
       <c r="AL85" s="6"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:38">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -4059,7 +4571,7 @@
       <c r="AK86" s="6"/>
       <c r="AL86" s="6"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:38">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4099,7 +4611,7 @@
       <c r="AK87" s="6"/>
       <c r="AL87" s="6"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:38">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -4139,7 +4651,7 @@
       <c r="AK88" s="6"/>
       <c r="AL88" s="6"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:38">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -4179,7 +4691,7 @@
       <c r="AK89" s="6"/>
       <c r="AL89" s="6"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:38">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -4219,7 +4731,7 @@
       <c r="AK90" s="6"/>
       <c r="AL90" s="6"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:38">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -4259,7 +4771,7 @@
       <c r="AK91" s="6"/>
       <c r="AL91" s="6"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:38">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -4299,7 +4811,7 @@
       <c r="AK92" s="6"/>
       <c r="AL92" s="6"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:38">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -4339,7 +4851,7 @@
       <c r="AK93" s="6"/>
       <c r="AL93" s="6"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:38">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -4379,7 +4891,7 @@
       <c r="AK94" s="6"/>
       <c r="AL94" s="6"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:38">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -4419,7 +4931,7 @@
       <c r="AK95" s="6"/>
       <c r="AL95" s="6"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:38">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -4459,7 +4971,7 @@
       <c r="AK96" s="6"/>
       <c r="AL96" s="6"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:38">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -4499,7 +5011,7 @@
       <c r="AK97" s="6"/>
       <c r="AL97" s="6"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:38">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -4539,7 +5051,7 @@
       <c r="AK98" s="6"/>
       <c r="AL98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:38">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -4579,7 +5091,7 @@
       <c r="AK99" s="6"/>
       <c r="AL99" s="6"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:38">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -4619,7 +5131,7 @@
       <c r="AK100" s="6"/>
       <c r="AL100" s="6"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:38">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -4659,7 +5171,7 @@
       <c r="AK101" s="6"/>
       <c r="AL101" s="6"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:38">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -4699,7 +5211,7 @@
       <c r="AK102" s="6"/>
       <c r="AL102" s="6"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:38">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -4739,7 +5251,7 @@
       <c r="AK103" s="6"/>
       <c r="AL103" s="6"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:38">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -4779,7 +5291,7 @@
       <c r="AK104" s="6"/>
       <c r="AL104" s="6"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:38">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -4819,7 +5331,7 @@
       <c r="AK105" s="6"/>
       <c r="AL105" s="6"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:38">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -4859,7 +5371,7 @@
       <c r="AK106" s="6"/>
       <c r="AL106" s="6"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:38">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -4899,7 +5411,7 @@
       <c r="AK107" s="6"/>
       <c r="AL107" s="6"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:38">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -4939,7 +5451,7 @@
       <c r="AK108" s="6"/>
       <c r="AL108" s="6"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:38">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -4979,7 +5491,7 @@
       <c r="AK109" s="6"/>
       <c r="AL109" s="6"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:38">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -5019,7 +5531,7 @@
       <c r="AK110" s="6"/>
       <c r="AL110" s="6"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:38">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -5059,7 +5571,7 @@
       <c r="AK111" s="6"/>
       <c r="AL111" s="6"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:38">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -5099,7 +5611,7 @@
       <c r="AK112" s="6"/>
       <c r="AL112" s="6"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:38">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -5139,7 +5651,7 @@
       <c r="AK113" s="6"/>
       <c r="AL113" s="6"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:38">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -5179,7 +5691,7 @@
       <c r="AK114" s="6"/>
       <c r="AL114" s="6"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:38">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -5219,7 +5731,7 @@
       <c r="AK115" s="6"/>
       <c r="AL115" s="6"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:38">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -5259,7 +5771,7 @@
       <c r="AK116" s="6"/>
       <c r="AL116" s="6"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:38">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -5299,7 +5811,7 @@
       <c r="AK117" s="6"/>
       <c r="AL117" s="6"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:38">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -5339,7 +5851,7 @@
       <c r="AK118" s="6"/>
       <c r="AL118" s="6"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:38">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -5379,7 +5891,7 @@
       <c r="AK119" s="6"/>
       <c r="AL119" s="6"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:38">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -5419,7 +5931,7 @@
       <c r="AK120" s="6"/>
       <c r="AL120" s="6"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:38">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -5459,7 +5971,7 @@
       <c r="AK121" s="6"/>
       <c r="AL121" s="6"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:38">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -5499,7 +6011,7 @@
       <c r="AK122" s="6"/>
       <c r="AL122" s="6"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:38">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -5539,7 +6051,7 @@
       <c r="AK123" s="6"/>
       <c r="AL123" s="6"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:38">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -5579,7 +6091,7 @@
       <c r="AK124" s="6"/>
       <c r="AL124" s="6"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:38">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -5619,7 +6131,7 @@
       <c r="AK125" s="6"/>
       <c r="AL125" s="6"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:38">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -5659,7 +6171,7 @@
       <c r="AK126" s="6"/>
       <c r="AL126" s="6"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:38">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -5699,7 +6211,7 @@
       <c r="AK127" s="6"/>
       <c r="AL127" s="6"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:38">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -5739,7 +6251,7 @@
       <c r="AK128" s="6"/>
       <c r="AL128" s="6"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:38">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -5779,7 +6291,7 @@
       <c r="AK129" s="6"/>
       <c r="AL129" s="6"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:38">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -5819,7 +6331,7 @@
       <c r="AK130" s="6"/>
       <c r="AL130" s="6"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:38">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -5859,7 +6371,7 @@
       <c r="AK131" s="6"/>
       <c r="AL131" s="6"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:38">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -5899,7 +6411,7 @@
       <c r="AK132" s="6"/>
       <c r="AL132" s="6"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:38">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -5939,7 +6451,7 @@
       <c r="AK133" s="6"/>
       <c r="AL133" s="6"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:38">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -5979,7 +6491,7 @@
       <c r="AK134" s="6"/>
       <c r="AL134" s="6"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:38">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -6019,7 +6531,7 @@
       <c r="AK135" s="6"/>
       <c r="AL135" s="6"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:38">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -6059,7 +6571,7 @@
       <c r="AK136" s="6"/>
       <c r="AL136" s="6"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:38">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -6099,7 +6611,7 @@
       <c r="AK137" s="6"/>
       <c r="AL137" s="6"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:38">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -6139,7 +6651,7 @@
       <c r="AK138" s="6"/>
       <c r="AL138" s="6"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:38">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -6179,7 +6691,7 @@
       <c r="AK139" s="6"/>
       <c r="AL139" s="6"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:38">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -6219,7 +6731,7 @@
       <c r="AK140" s="6"/>
       <c r="AL140" s="6"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:38">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -6259,7 +6771,7 @@
       <c r="AK141" s="6"/>
       <c r="AL141" s="6"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:38">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -6299,7 +6811,7 @@
       <c r="AK142" s="6"/>
       <c r="AL142" s="6"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:38">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -6339,7 +6851,7 @@
       <c r="AK143" s="6"/>
       <c r="AL143" s="6"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:38">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -6379,7 +6891,7 @@
       <c r="AK144" s="6"/>
       <c r="AL144" s="6"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:38">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -6419,7 +6931,7 @@
       <c r="AK145" s="6"/>
       <c r="AL145" s="6"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:38">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -6459,7 +6971,7 @@
       <c r="AK146" s="6"/>
       <c r="AL146" s="6"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:38">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -6499,7 +7011,7 @@
       <c r="AK147" s="6"/>
       <c r="AL147" s="6"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:38">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -6539,7 +7051,7 @@
       <c r="AK148" s="6"/>
       <c r="AL148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:38">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -6579,7 +7091,7 @@
       <c r="AK149" s="6"/>
       <c r="AL149" s="6"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:38">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -6619,7 +7131,7 @@
       <c r="AK150" s="6"/>
       <c r="AL150" s="6"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:38">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -6659,7 +7171,7 @@
       <c r="AK151" s="6"/>
       <c r="AL151" s="6"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:38">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -6699,7 +7211,7 @@
       <c r="AK152" s="6"/>
       <c r="AL152" s="6"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:38">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -6739,7 +7251,7 @@
       <c r="AK153" s="6"/>
       <c r="AL153" s="6"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:38">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -6779,7 +7291,7 @@
       <c r="AK154" s="6"/>
       <c r="AL154" s="6"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:38">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -6819,7 +7331,7 @@
       <c r="AK155" s="6"/>
       <c r="AL155" s="6"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:38">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -6859,7 +7371,7 @@
       <c r="AK156" s="6"/>
       <c r="AL156" s="6"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:38">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -6899,7 +7411,7 @@
       <c r="AK157" s="6"/>
       <c r="AL157" s="6"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:38">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -6939,7 +7451,7 @@
       <c r="AK158" s="6"/>
       <c r="AL158" s="6"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:38">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -6979,7 +7491,7 @@
       <c r="AK159" s="6"/>
       <c r="AL159" s="6"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:38">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -7019,7 +7531,7 @@
       <c r="AK160" s="6"/>
       <c r="AL160" s="6"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:38">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -7059,7 +7571,7 @@
       <c r="AK161" s="6"/>
       <c r="AL161" s="6"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:38">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -7099,7 +7611,7 @@
       <c r="AK162" s="6"/>
       <c r="AL162" s="6"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:38">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -7139,7 +7651,7 @@
       <c r="AK163" s="6"/>
       <c r="AL163" s="6"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:38">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -7179,7 +7691,7 @@
       <c r="AK164" s="6"/>
       <c r="AL164" s="6"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:38">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -7219,7 +7731,7 @@
       <c r="AK165" s="6"/>
       <c r="AL165" s="6"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:38">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -7259,7 +7771,7 @@
       <c r="AK166" s="6"/>
       <c r="AL166" s="6"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:38">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -7299,7 +7811,7 @@
       <c r="AK167" s="6"/>
       <c r="AL167" s="6"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:38">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -7339,7 +7851,7 @@
       <c r="AK168" s="6"/>
       <c r="AL168" s="6"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:38">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -7379,7 +7891,7 @@
       <c r="AK169" s="6"/>
       <c r="AL169" s="6"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:38">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -7419,7 +7931,7 @@
       <c r="AK170" s="6"/>
       <c r="AL170" s="6"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:38">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -7459,7 +7971,7 @@
       <c r="AK171" s="6"/>
       <c r="AL171" s="6"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:38">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -7499,7 +8011,7 @@
       <c r="AK172" s="6"/>
       <c r="AL172" s="6"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:38">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -7539,7 +8051,7 @@
       <c r="AK173" s="6"/>
       <c r="AL173" s="6"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:38">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -7579,7 +8091,7 @@
       <c r="AK174" s="6"/>
       <c r="AL174" s="6"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:38">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -7619,7 +8131,7 @@
       <c r="AK175" s="6"/>
       <c r="AL175" s="6"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:38">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -7659,7 +8171,7 @@
       <c r="AK176" s="6"/>
       <c r="AL176" s="6"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:38">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -7699,7 +8211,7 @@
       <c r="AK177" s="6"/>
       <c r="AL177" s="6"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:38">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -7739,7 +8251,7 @@
       <c r="AK178" s="6"/>
       <c r="AL178" s="6"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:38">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -7779,7 +8291,7 @@
       <c r="AK179" s="6"/>
       <c r="AL179" s="6"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:38">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -7819,7 +8331,7 @@
       <c r="AK180" s="6"/>
       <c r="AL180" s="6"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:38">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -7859,7 +8371,7 @@
       <c r="AK181" s="6"/>
       <c r="AL181" s="6"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:38">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -7899,7 +8411,7 @@
       <c r="AK182" s="6"/>
       <c r="AL182" s="6"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:38">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -7939,7 +8451,7 @@
       <c r="AK183" s="6"/>
       <c r="AL183" s="6"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:38">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -7979,7 +8491,7 @@
       <c r="AK184" s="6"/>
       <c r="AL184" s="6"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:38">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -8019,7 +8531,7 @@
       <c r="AK185" s="6"/>
       <c r="AL185" s="6"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:38">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -8059,7 +8571,7 @@
       <c r="AK186" s="6"/>
       <c r="AL186" s="6"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:38">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -8099,7 +8611,7 @@
       <c r="AK187" s="6"/>
       <c r="AL187" s="6"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:38">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -8139,7 +8651,7 @@
       <c r="AK188" s="6"/>
       <c r="AL188" s="6"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:38">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -8179,7 +8691,7 @@
       <c r="AK189" s="6"/>
       <c r="AL189" s="6"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:38">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -8219,7 +8731,7 @@
       <c r="AK190" s="6"/>
       <c r="AL190" s="6"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:38">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -8259,7 +8771,7 @@
       <c r="AK191" s="6"/>
       <c r="AL191" s="6"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:38">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -8299,7 +8811,7 @@
       <c r="AK192" s="6"/>
       <c r="AL192" s="6"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:38">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -8339,7 +8851,7 @@
       <c r="AK193" s="6"/>
       <c r="AL193" s="6"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:38">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -8379,7 +8891,7 @@
       <c r="AK194" s="6"/>
       <c r="AL194" s="6"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:38">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -8419,7 +8931,7 @@
       <c r="AK195" s="6"/>
       <c r="AL195" s="6"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:38">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -8459,7 +8971,7 @@
       <c r="AK196" s="6"/>
       <c r="AL196" s="6"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:38">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -8499,7 +9011,7 @@
       <c r="AK197" s="6"/>
       <c r="AL197" s="6"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:38">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -8539,7 +9051,7 @@
       <c r="AK198" s="6"/>
       <c r="AL198" s="6"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:38">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -8579,7 +9091,7 @@
       <c r="AK199" s="6"/>
       <c r="AL199" s="6"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:38">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -8619,7 +9131,7 @@
       <c r="AK200" s="6"/>
       <c r="AL200" s="6"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:38">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -8659,7 +9171,7 @@
       <c r="AK201" s="6"/>
       <c r="AL201" s="6"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:38">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -8699,7 +9211,7 @@
       <c r="AK202" s="6"/>
       <c r="AL202" s="6"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:38">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -8739,7 +9251,7 @@
       <c r="AK203" s="6"/>
       <c r="AL203" s="6"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:38">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -8779,7 +9291,7 @@
       <c r="AK204" s="6"/>
       <c r="AL204" s="6"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:38">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -8819,7 +9331,7 @@
       <c r="AK205" s="6"/>
       <c r="AL205" s="6"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:38">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -8859,7 +9371,7 @@
       <c r="AK206" s="6"/>
       <c r="AL206" s="6"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:38">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -8899,7 +9411,7 @@
       <c r="AK207" s="6"/>
       <c r="AL207" s="6"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:38">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -8939,7 +9451,7 @@
       <c r="AK208" s="6"/>
       <c r="AL208" s="6"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:38">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -8979,7 +9491,7 @@
       <c r="AK209" s="6"/>
       <c r="AL209" s="6"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:38">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -9019,7 +9531,7 @@
       <c r="AK210" s="6"/>
       <c r="AL210" s="6"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:38">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -9059,7 +9571,7 @@
       <c r="AK211" s="6"/>
       <c r="AL211" s="6"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:38">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -9099,7 +9611,7 @@
       <c r="AK212" s="6"/>
       <c r="AL212" s="6"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:38">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -9139,7 +9651,7 @@
       <c r="AK213" s="6"/>
       <c r="AL213" s="6"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:38">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -9179,7 +9691,7 @@
       <c r="AK214" s="6"/>
       <c r="AL214" s="6"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:38">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -9219,7 +9731,7 @@
       <c r="AK215" s="6"/>
       <c r="AL215" s="6"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:38">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -9259,7 +9771,7 @@
       <c r="AK216" s="6"/>
       <c r="AL216" s="6"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:38">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -9299,7 +9811,7 @@
       <c r="AK217" s="6"/>
       <c r="AL217" s="6"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:38">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -9339,7 +9851,7 @@
       <c r="AK218" s="6"/>
       <c r="AL218" s="6"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:38">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -9379,7 +9891,7 @@
       <c r="AK219" s="6"/>
       <c r="AL219" s="6"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:38">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -9419,7 +9931,7 @@
       <c r="AK220" s="6"/>
       <c r="AL220" s="6"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:38">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -9459,7 +9971,7 @@
       <c r="AK221" s="6"/>
       <c r="AL221" s="6"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:38">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -9499,7 +10011,7 @@
       <c r="AK222" s="6"/>
       <c r="AL222" s="6"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:38">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -9539,7 +10051,7 @@
       <c r="AK223" s="6"/>
       <c r="AL223" s="6"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:38">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -9579,7 +10091,7 @@
       <c r="AK224" s="6"/>
       <c r="AL224" s="6"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:38">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -9619,7 +10131,7 @@
       <c r="AK225" s="6"/>
       <c r="AL225" s="6"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:38">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -9659,7 +10171,7 @@
       <c r="AK226" s="6"/>
       <c r="AL226" s="6"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:38">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -9699,7 +10211,7 @@
       <c r="AK227" s="6"/>
       <c r="AL227" s="6"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:38">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -9739,7 +10251,7 @@
       <c r="AK228" s="6"/>
       <c r="AL228" s="6"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:38">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -9779,7 +10291,7 @@
       <c r="AK229" s="6"/>
       <c r="AL229" s="6"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:38">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -9819,7 +10331,7 @@
       <c r="AK230" s="6"/>
       <c r="AL230" s="6"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:38">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -9859,7 +10371,7 @@
       <c r="AK231" s="6"/>
       <c r="AL231" s="6"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:38">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -9899,7 +10411,7 @@
       <c r="AK232" s="6"/>
       <c r="AL232" s="6"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:38">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -9939,7 +10451,7 @@
       <c r="AK233" s="6"/>
       <c r="AL233" s="6"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:38">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -9979,7 +10491,7 @@
       <c r="AK234" s="6"/>
       <c r="AL234" s="6"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:38">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -10019,7 +10531,7 @@
       <c r="AK235" s="6"/>
       <c r="AL235" s="6"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:38">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -10059,7 +10571,7 @@
       <c r="AK236" s="6"/>
       <c r="AL236" s="6"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:38">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -10099,7 +10611,7 @@
       <c r="AK237" s="6"/>
       <c r="AL237" s="6"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:38">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -10139,7 +10651,7 @@
       <c r="AK238" s="6"/>
       <c r="AL238" s="6"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:38">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -10179,7 +10691,7 @@
       <c r="AK239" s="6"/>
       <c r="AL239" s="6"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:38">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -10219,7 +10731,7 @@
       <c r="AK240" s="6"/>
       <c r="AL240" s="6"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:38">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -10259,7 +10771,7 @@
       <c r="AK241" s="6"/>
       <c r="AL241" s="6"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:38">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -10299,7 +10811,7 @@
       <c r="AK242" s="6"/>
       <c r="AL242" s="6"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:38">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -10339,7 +10851,7 @@
       <c r="AK243" s="6"/>
       <c r="AL243" s="6"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:38">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -10379,7 +10891,7 @@
       <c r="AK244" s="6"/>
       <c r="AL244" s="6"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:38">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -10419,7 +10931,7 @@
       <c r="AK245" s="6"/>
       <c r="AL245" s="6"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:38">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -10459,7 +10971,7 @@
       <c r="AK246" s="6"/>
       <c r="AL246" s="6"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:38">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -10499,7 +11011,7 @@
       <c r="AK247" s="6"/>
       <c r="AL247" s="6"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:38">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -10539,7 +11051,7 @@
       <c r="AK248" s="6"/>
       <c r="AL248" s="6"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:38">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -10579,7 +11091,7 @@
       <c r="AK249" s="6"/>
       <c r="AL249" s="6"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:38">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -10619,7 +11131,7 @@
       <c r="AK250" s="6"/>
       <c r="AL250" s="6"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:38">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -10659,7 +11171,7 @@
       <c r="AK251" s="6"/>
       <c r="AL251" s="6"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:38">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -10699,7 +11211,7 @@
       <c r="AK252" s="6"/>
       <c r="AL252" s="6"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:38">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -10739,7 +11251,7 @@
       <c r="AK253" s="6"/>
       <c r="AL253" s="6"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:38">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -10779,7 +11291,7 @@
       <c r="AK254" s="6"/>
       <c r="AL254" s="6"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:38">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -10819,7 +11331,7 @@
       <c r="AK255" s="6"/>
       <c r="AL255" s="6"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:38">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -10859,7 +11371,7 @@
       <c r="AK256" s="6"/>
       <c r="AL256" s="6"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:38">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -10899,7 +11411,7 @@
       <c r="AK257" s="6"/>
       <c r="AL257" s="6"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:38">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -10939,7 +11451,7 @@
       <c r="AK258" s="6"/>
       <c r="AL258" s="6"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:38">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -10979,7 +11491,7 @@
       <c r="AK259" s="6"/>
       <c r="AL259" s="6"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:38">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -11019,7 +11531,7 @@
       <c r="AK260" s="6"/>
       <c r="AL260" s="6"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:38">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -11059,7 +11571,7 @@
       <c r="AK261" s="6"/>
       <c r="AL261" s="6"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:38">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -11099,7 +11611,7 @@
       <c r="AK262" s="6"/>
       <c r="AL262" s="6"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:38">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -11139,7 +11651,7 @@
       <c r="AK263" s="6"/>
       <c r="AL263" s="6"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:38">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -11179,7 +11691,7 @@
       <c r="AK264" s="6"/>
       <c r="AL264" s="6"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:38">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -11219,7 +11731,7 @@
       <c r="AK265" s="6"/>
       <c r="AL265" s="6"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:38">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -11259,7 +11771,7 @@
       <c r="AK266" s="6"/>
       <c r="AL266" s="6"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:38">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -11299,7 +11811,7 @@
       <c r="AK267" s="6"/>
       <c r="AL267" s="6"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:38">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -11339,7 +11851,7 @@
       <c r="AK268" s="6"/>
       <c r="AL268" s="6"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:38">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -11379,7 +11891,7 @@
       <c r="AK269" s="6"/>
       <c r="AL269" s="6"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:38">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -11419,7 +11931,7 @@
       <c r="AK270" s="6"/>
       <c r="AL270" s="6"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:38">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -11459,7 +11971,7 @@
       <c r="AK271" s="6"/>
       <c r="AL271" s="6"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:38">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -11499,7 +12011,7 @@
       <c r="AK272" s="6"/>
       <c r="AL272" s="6"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:38">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -11539,7 +12051,7 @@
       <c r="AK273" s="6"/>
       <c r="AL273" s="6"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:38">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -11579,7 +12091,7 @@
       <c r="AK274" s="6"/>
       <c r="AL274" s="6"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:38">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -11619,7 +12131,7 @@
       <c r="AK275" s="6"/>
       <c r="AL275" s="6"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:38">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -11659,7 +12171,7 @@
       <c r="AK276" s="6"/>
       <c r="AL276" s="6"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:38">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -11699,7 +12211,7 @@
       <c r="AK277" s="6"/>
       <c r="AL277" s="6"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:38">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -11739,7 +12251,7 @@
       <c r="AK278" s="6"/>
       <c r="AL278" s="6"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:38">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -11779,7 +12291,7 @@
       <c r="AK279" s="6"/>
       <c r="AL279" s="6"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:38">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -11819,7 +12331,7 @@
       <c r="AK280" s="6"/>
       <c r="AL280" s="6"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:38">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -11859,7 +12371,7 @@
       <c r="AK281" s="6"/>
       <c r="AL281" s="6"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:38">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -11899,7 +12411,7 @@
       <c r="AK282" s="6"/>
       <c r="AL282" s="6"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:38">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -11939,7 +12451,7 @@
       <c r="AK283" s="6"/>
       <c r="AL283" s="6"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:38">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -11979,7 +12491,7 @@
       <c r="AK284" s="6"/>
       <c r="AL284" s="6"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:38">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -12019,7 +12531,7 @@
       <c r="AK285" s="6"/>
       <c r="AL285" s="6"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:38">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -12059,7 +12571,7 @@
       <c r="AK286" s="6"/>
       <c r="AL286" s="6"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:38">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -12099,7 +12611,7 @@
       <c r="AK287" s="6"/>
       <c r="AL287" s="6"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:38">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -12139,7 +12651,7 @@
       <c r="AK288" s="6"/>
       <c r="AL288" s="6"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:38">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -12179,7 +12691,7 @@
       <c r="AK289" s="6"/>
       <c r="AL289" s="6"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:38">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -12219,7 +12731,7 @@
       <c r="AK290" s="6"/>
       <c r="AL290" s="6"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:38">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -12259,7 +12771,7 @@
       <c r="AK291" s="6"/>
       <c r="AL291" s="6"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:38">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -12299,7 +12811,7 @@
       <c r="AK292" s="6"/>
       <c r="AL292" s="6"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:38">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -12339,7 +12851,7 @@
       <c r="AK293" s="6"/>
       <c r="AL293" s="6"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:38">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -12379,7 +12891,7 @@
       <c r="AK294" s="6"/>
       <c r="AL294" s="6"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:38">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -12419,7 +12931,7 @@
       <c r="AK295" s="6"/>
       <c r="AL295" s="6"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:38">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -12459,7 +12971,7 @@
       <c r="AK296" s="6"/>
       <c r="AL296" s="6"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:38">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -12499,7 +13011,7 @@
       <c r="AK297" s="6"/>
       <c r="AL297" s="6"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:38">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -12539,7 +13051,7 @@
       <c r="AK298" s="6"/>
       <c r="AL298" s="6"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:38">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -12579,7 +13091,7 @@
       <c r="AK299" s="6"/>
       <c r="AL299" s="6"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:38">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -12619,7 +13131,7 @@
       <c r="AK300" s="6"/>
       <c r="AL300" s="6"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:38">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -12659,7 +13171,7 @@
       <c r="AK301" s="6"/>
       <c r="AL301" s="6"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:38">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -12699,7 +13211,7 @@
       <c r="AK302" s="6"/>
       <c r="AL302" s="6"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:38">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -12739,7 +13251,7 @@
       <c r="AK303" s="6"/>
       <c r="AL303" s="6"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:38">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -12779,7 +13291,7 @@
       <c r="AK304" s="6"/>
       <c r="AL304" s="6"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:38">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -12819,7 +13331,7 @@
       <c r="AK305" s="6"/>
       <c r="AL305" s="6"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:38">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -12859,7 +13371,7 @@
       <c r="AK306" s="6"/>
       <c r="AL306" s="6"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:38">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -12899,7 +13411,7 @@
       <c r="AK307" s="6"/>
       <c r="AL307" s="6"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:38">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -12939,7 +13451,7 @@
       <c r="AK308" s="6"/>
       <c r="AL308" s="6"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:38">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -12979,7 +13491,7 @@
       <c r="AK309" s="6"/>
       <c r="AL309" s="6"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:38">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -13019,7 +13531,7 @@
       <c r="AK310" s="6"/>
       <c r="AL310" s="6"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:38">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -13059,7 +13571,7 @@
       <c r="AK311" s="6"/>
       <c r="AL311" s="6"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:38">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -13099,7 +13611,7 @@
       <c r="AK312" s="6"/>
       <c r="AL312" s="6"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:38">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -13139,7 +13651,7 @@
       <c r="AK313" s="6"/>
       <c r="AL313" s="6"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:38">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -13179,7 +13691,7 @@
       <c r="AK314" s="6"/>
       <c r="AL314" s="6"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:38">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -13219,7 +13731,7 @@
       <c r="AK315" s="6"/>
       <c r="AL315" s="6"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:38">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -13259,7 +13771,7 @@
       <c r="AK316" s="6"/>
       <c r="AL316" s="6"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:38">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -13299,7 +13811,7 @@
       <c r="AK317" s="6"/>
       <c r="AL317" s="6"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:38">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -13339,7 +13851,7 @@
       <c r="AK318" s="6"/>
       <c r="AL318" s="6"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:38">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -13379,7 +13891,7 @@
       <c r="AK319" s="6"/>
       <c r="AL319" s="6"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:38">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -13419,7 +13931,7 @@
       <c r="AK320" s="6"/>
       <c r="AL320" s="6"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:38">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -13459,7 +13971,7 @@
       <c r="AK321" s="6"/>
       <c r="AL321" s="6"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:38">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -13499,7 +14011,7 @@
       <c r="AK322" s="6"/>
       <c r="AL322" s="6"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:38">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -13539,7 +14051,7 @@
       <c r="AK323" s="6"/>
       <c r="AL323" s="6"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:38">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -13579,7 +14091,7 @@
       <c r="AK324" s="6"/>
       <c r="AL324" s="6"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:38">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -13619,7 +14131,7 @@
       <c r="AK325" s="6"/>
       <c r="AL325" s="6"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:38">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -13659,7 +14171,7 @@
       <c r="AK326" s="6"/>
       <c r="AL326" s="6"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:38">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -13699,7 +14211,7 @@
       <c r="AK327" s="6"/>
       <c r="AL327" s="6"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:38">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -13739,7 +14251,7 @@
       <c r="AK328" s="6"/>
       <c r="AL328" s="6"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:38">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -13779,7 +14291,7 @@
       <c r="AK329" s="6"/>
       <c r="AL329" s="6"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:38">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -13819,7 +14331,7 @@
       <c r="AK330" s="6"/>
       <c r="AL330" s="6"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:38">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -13859,7 +14371,7 @@
       <c r="AK331" s="6"/>
       <c r="AL331" s="6"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:38">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -13899,7 +14411,7 @@
       <c r="AK332" s="6"/>
       <c r="AL332" s="6"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:38">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -13939,7 +14451,7 @@
       <c r="AK333" s="6"/>
       <c r="AL333" s="6"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:38">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -13979,7 +14491,7 @@
       <c r="AK334" s="6"/>
       <c r="AL334" s="6"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:38">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -14019,7 +14531,7 @@
       <c r="AK335" s="6"/>
       <c r="AL335" s="6"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:38">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -14059,7 +14571,7 @@
       <c r="AK336" s="6"/>
       <c r="AL336" s="6"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:38">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -14099,7 +14611,7 @@
       <c r="AK337" s="6"/>
       <c r="AL337" s="6"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:38">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -14139,7 +14651,7 @@
       <c r="AK338" s="6"/>
       <c r="AL338" s="6"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:38">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -14179,7 +14691,7 @@
       <c r="AK339" s="6"/>
       <c r="AL339" s="6"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:38">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -14219,7 +14731,7 @@
       <c r="AK340" s="6"/>
       <c r="AL340" s="6"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:38">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -14259,7 +14771,7 @@
       <c r="AK341" s="6"/>
       <c r="AL341" s="6"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:38">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -14299,7 +14811,7 @@
       <c r="AK342" s="6"/>
       <c r="AL342" s="6"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:38">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -14339,7 +14851,7 @@
       <c r="AK343" s="6"/>
       <c r="AL343" s="6"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:38">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -14379,7 +14891,7 @@
       <c r="AK344" s="6"/>
       <c r="AL344" s="6"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:38">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -14419,7 +14931,7 @@
       <c r="AK345" s="6"/>
       <c r="AL345" s="6"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:38">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -14459,7 +14971,7 @@
       <c r="AK346" s="6"/>
       <c r="AL346" s="6"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:38">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -14499,7 +15011,7 @@
       <c r="AK347" s="6"/>
       <c r="AL347" s="6"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:38">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -14539,7 +15051,7 @@
       <c r="AK348" s="6"/>
       <c r="AL348" s="6"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:38">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -14579,7 +15091,7 @@
       <c r="AK349" s="6"/>
       <c r="AL349" s="6"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:38">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -14619,7 +15131,7 @@
       <c r="AK350" s="6"/>
       <c r="AL350" s="6"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:38">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -14659,7 +15171,7 @@
       <c r="AK351" s="6"/>
       <c r="AL351" s="6"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:38">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -14699,7 +15211,7 @@
       <c r="AK352" s="6"/>
       <c r="AL352" s="6"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:38">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -14739,7 +15251,7 @@
       <c r="AK353" s="6"/>
       <c r="AL353" s="6"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:38">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -14779,7 +15291,7 @@
       <c r="AK354" s="6"/>
       <c r="AL354" s="6"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:38">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -14819,7 +15331,7 @@
       <c r="AK355" s="6"/>
       <c r="AL355" s="6"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:38">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -14859,7 +15371,7 @@
       <c r="AK356" s="6"/>
       <c r="AL356" s="6"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:38">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -14899,7 +15411,7 @@
       <c r="AK357" s="6"/>
       <c r="AL357" s="6"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:38">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -14939,7 +15451,7 @@
       <c r="AK358" s="6"/>
       <c r="AL358" s="6"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:38">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -14979,7 +15491,7 @@
       <c r="AK359" s="6"/>
       <c r="AL359" s="6"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:38">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -15019,7 +15531,7 @@
       <c r="AK360" s="6"/>
       <c r="AL360" s="6"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:38">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -15059,7 +15571,7 @@
       <c r="AK361" s="6"/>
       <c r="AL361" s="6"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:38">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -15099,7 +15611,7 @@
       <c r="AK362" s="6"/>
       <c r="AL362" s="6"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:38">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -15139,7 +15651,7 @@
       <c r="AK363" s="6"/>
       <c r="AL363" s="6"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:38">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -15179,7 +15691,7 @@
       <c r="AK364" s="6"/>
       <c r="AL364" s="6"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:38">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -15219,7 +15731,7 @@
       <c r="AK365" s="6"/>
       <c r="AL365" s="6"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:38">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -15259,7 +15771,7 @@
       <c r="AK366" s="6"/>
       <c r="AL366" s="6"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:38">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -15299,7 +15811,7 @@
       <c r="AK367" s="6"/>
       <c r="AL367" s="6"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:38">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -15339,7 +15851,7 @@
       <c r="AK368" s="6"/>
       <c r="AL368" s="6"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:38">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -15379,7 +15891,7 @@
       <c r="AK369" s="6"/>
       <c r="AL369" s="6"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:38">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -15419,7 +15931,7 @@
       <c r="AK370" s="6"/>
       <c r="AL370" s="6"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:38">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -15459,7 +15971,7 @@
       <c r="AK371" s="6"/>
       <c r="AL371" s="6"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:38">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -15499,7 +16011,7 @@
       <c r="AK372" s="6"/>
       <c r="AL372" s="6"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:38">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -15539,7 +16051,7 @@
       <c r="AK373" s="6"/>
       <c r="AL373" s="6"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:38">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -15579,7 +16091,7 @@
       <c r="AK374" s="6"/>
       <c r="AL374" s="6"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:38">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -15619,7 +16131,7 @@
       <c r="AK375" s="6"/>
       <c r="AL375" s="6"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:38">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -15659,7 +16171,7 @@
       <c r="AK376" s="6"/>
       <c r="AL376" s="6"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:38">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -15699,7 +16211,7 @@
       <c r="AK377" s="6"/>
       <c r="AL377" s="6"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:38">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -15739,7 +16251,7 @@
       <c r="AK378" s="6"/>
       <c r="AL378" s="6"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:38">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -15779,7 +16291,7 @@
       <c r="AK379" s="6"/>
       <c r="AL379" s="6"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:38">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -15819,7 +16331,7 @@
       <c r="AK380" s="6"/>
       <c r="AL380" s="6"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:38">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -15859,7 +16371,7 @@
       <c r="AK381" s="6"/>
       <c r="AL381" s="6"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:38">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -15899,7 +16411,7 @@
       <c r="AK382" s="6"/>
       <c r="AL382" s="6"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:38">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -15939,7 +16451,7 @@
       <c r="AK383" s="6"/>
       <c r="AL383" s="6"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:38">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -15979,7 +16491,7 @@
       <c r="AK384" s="6"/>
       <c r="AL384" s="6"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:38">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -16019,7 +16531,7 @@
       <c r="AK385" s="6"/>
       <c r="AL385" s="6"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:38">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -16059,7 +16571,7 @@
       <c r="AK386" s="6"/>
       <c r="AL386" s="6"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:38">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -16099,7 +16611,7 @@
       <c r="AK387" s="6"/>
       <c r="AL387" s="6"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:38">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -16139,7 +16651,7 @@
       <c r="AK388" s="6"/>
       <c r="AL388" s="6"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:38">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -16179,7 +16691,7 @@
       <c r="AK389" s="6"/>
       <c r="AL389" s="6"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:38">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -16219,7 +16731,7 @@
       <c r="AK390" s="6"/>
       <c r="AL390" s="6"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:38">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -16259,7 +16771,7 @@
       <c r="AK391" s="6"/>
       <c r="AL391" s="6"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:38">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -16299,7 +16811,7 @@
       <c r="AK392" s="6"/>
       <c r="AL392" s="6"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:38">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -16339,7 +16851,7 @@
       <c r="AK393" s="6"/>
       <c r="AL393" s="6"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:38">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -16379,7 +16891,7 @@
       <c r="AK394" s="6"/>
       <c r="AL394" s="6"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:38">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -16419,7 +16931,7 @@
       <c r="AK395" s="6"/>
       <c r="AL395" s="6"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:38">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -16459,7 +16971,7 @@
       <c r="AK396" s="6"/>
       <c r="AL396" s="6"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:38">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -16499,7 +17011,7 @@
       <c r="AK397" s="6"/>
       <c r="AL397" s="6"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:38">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -16539,7 +17051,7 @@
       <c r="AK398" s="6"/>
       <c r="AL398" s="6"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:38">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
@@ -16579,7 +17091,7 @@
       <c r="AK399" s="6"/>
       <c r="AL399" s="6"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:38">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
@@ -16619,7 +17131,7 @@
       <c r="AK400" s="6"/>
       <c r="AL400" s="6"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:38">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
@@ -16659,7 +17171,7 @@
       <c r="AK401" s="6"/>
       <c r="AL401" s="6"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:38">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
@@ -16699,7 +17211,7 @@
       <c r="AK402" s="6"/>
       <c r="AL402" s="6"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:38">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
@@ -16739,7 +17251,7 @@
       <c r="AK403" s="6"/>
       <c r="AL403" s="6"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:38">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
@@ -16779,7 +17291,7 @@
       <c r="AK404" s="6"/>
       <c r="AL404" s="6"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:38">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
@@ -16819,7 +17331,7 @@
       <c r="AK405" s="6"/>
       <c r="AL405" s="6"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:38">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
@@ -16859,7 +17371,7 @@
       <c r="AK406" s="6"/>
       <c r="AL406" s="6"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:38">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
@@ -16899,7 +17411,7 @@
       <c r="AK407" s="6"/>
       <c r="AL407" s="6"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:38">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
@@ -16939,7 +17451,7 @@
       <c r="AK408" s="6"/>
       <c r="AL408" s="6"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:38">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
@@ -16979,7 +17491,7 @@
       <c r="AK409" s="6"/>
       <c r="AL409" s="6"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:38">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
@@ -17019,7 +17531,7 @@
       <c r="AK410" s="6"/>
       <c r="AL410" s="6"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:38">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
@@ -17059,7 +17571,7 @@
       <c r="AK411" s="6"/>
       <c r="AL411" s="6"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:38">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
@@ -17099,7 +17611,7 @@
       <c r="AK412" s="6"/>
       <c r="AL412" s="6"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:38">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
@@ -17139,7 +17651,7 @@
       <c r="AK413" s="6"/>
       <c r="AL413" s="6"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:38">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
@@ -17179,7 +17691,7 @@
       <c r="AK414" s="6"/>
       <c r="AL414" s="6"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:38">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
@@ -17219,7 +17731,7 @@
       <c r="AK415" s="6"/>
       <c r="AL415" s="6"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:38">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
@@ -17259,7 +17771,7 @@
       <c r="AK416" s="6"/>
       <c r="AL416" s="6"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:38">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
@@ -17299,7 +17811,7 @@
       <c r="AK417" s="6"/>
       <c r="AL417" s="6"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:38">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
@@ -17339,7 +17851,7 @@
       <c r="AK418" s="6"/>
       <c r="AL418" s="6"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:38">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
@@ -17379,7 +17891,7 @@
       <c r="AK419" s="6"/>
       <c r="AL419" s="6"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:38">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
@@ -17419,7 +17931,7 @@
       <c r="AK420" s="6"/>
       <c r="AL420" s="6"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:38">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
@@ -17459,7 +17971,7 @@
       <c r="AK421" s="6"/>
       <c r="AL421" s="6"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:38">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
@@ -17499,7 +18011,7 @@
       <c r="AK422" s="6"/>
       <c r="AL422" s="6"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:38">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
@@ -17539,7 +18051,7 @@
       <c r="AK423" s="6"/>
       <c r="AL423" s="6"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:38">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
@@ -17579,7 +18091,7 @@
       <c r="AK424" s="6"/>
       <c r="AL424" s="6"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:38">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
@@ -17619,7 +18131,7 @@
       <c r="AK425" s="6"/>
       <c r="AL425" s="6"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:38">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
@@ -17659,7 +18171,7 @@
       <c r="AK426" s="6"/>
       <c r="AL426" s="6"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:38">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
@@ -17699,7 +18211,7 @@
       <c r="AK427" s="6"/>
       <c r="AL427" s="6"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:38">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
@@ -17739,7 +18251,7 @@
       <c r="AK428" s="6"/>
       <c r="AL428" s="6"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:38">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
@@ -17779,7 +18291,7 @@
       <c r="AK429" s="6"/>
       <c r="AL429" s="6"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:38">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
@@ -17819,7 +18331,7 @@
       <c r="AK430" s="6"/>
       <c r="AL430" s="6"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:38">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
@@ -17859,7 +18371,7 @@
       <c r="AK431" s="6"/>
       <c r="AL431" s="6"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:38">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
@@ -17899,7 +18411,7 @@
       <c r="AK432" s="6"/>
       <c r="AL432" s="6"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:38">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
@@ -17939,7 +18451,7 @@
       <c r="AK433" s="6"/>
       <c r="AL433" s="6"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:38">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
@@ -17979,7 +18491,7 @@
       <c r="AK434" s="6"/>
       <c r="AL434" s="6"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:38">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
@@ -18019,7 +18531,7 @@
       <c r="AK435" s="6"/>
       <c r="AL435" s="6"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:38">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
@@ -18059,7 +18571,7 @@
       <c r="AK436" s="6"/>
       <c r="AL436" s="6"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:38">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
@@ -18099,7 +18611,7 @@
       <c r="AK437" s="6"/>
       <c r="AL437" s="6"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:38">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
@@ -18139,7 +18651,7 @@
       <c r="AK438" s="6"/>
       <c r="AL438" s="6"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:38">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
@@ -18179,7 +18691,7 @@
       <c r="AK439" s="6"/>
       <c r="AL439" s="6"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:38">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
@@ -18219,7 +18731,7 @@
       <c r="AK440" s="6"/>
       <c r="AL440" s="6"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:38">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
@@ -18259,7 +18771,7 @@
       <c r="AK441" s="6"/>
       <c r="AL441" s="6"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:38">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
@@ -18299,7 +18811,7 @@
       <c r="AK442" s="6"/>
       <c r="AL442" s="6"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:38">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -18339,7 +18851,7 @@
       <c r="AK443" s="6"/>
       <c r="AL443" s="6"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:38">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -18379,7 +18891,7 @@
       <c r="AK444" s="6"/>
       <c r="AL444" s="6"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:38">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -18419,7 +18931,7 @@
       <c r="AK445" s="6"/>
       <c r="AL445" s="6"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:38">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -18459,7 +18971,7 @@
       <c r="AK446" s="6"/>
       <c r="AL446" s="6"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:38">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -18499,7 +19011,7 @@
       <c r="AK447" s="6"/>
       <c r="AL447" s="6"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:38">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -18539,7 +19051,7 @@
       <c r="AK448" s="6"/>
       <c r="AL448" s="6"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:38">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -18579,7 +19091,7 @@
       <c r="AK449" s="6"/>
       <c r="AL449" s="6"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:38">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
@@ -18619,7 +19131,7 @@
       <c r="AK450" s="6"/>
       <c r="AL450" s="6"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:38">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
@@ -18659,7 +19171,7 @@
       <c r="AK451" s="6"/>
       <c r="AL451" s="6"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:38">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
@@ -18699,7 +19211,7 @@
       <c r="AK452" s="6"/>
       <c r="AL452" s="6"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:38">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
@@ -18739,7 +19251,7 @@
       <c r="AK453" s="6"/>
       <c r="AL453" s="6"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:38">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
@@ -18779,7 +19291,7 @@
       <c r="AK454" s="6"/>
       <c r="AL454" s="6"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:38">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
@@ -18819,7 +19331,7 @@
       <c r="AK455" s="6"/>
       <c r="AL455" s="6"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:38">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
@@ -18859,7 +19371,7 @@
       <c r="AK456" s="6"/>
       <c r="AL456" s="6"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:38">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
@@ -18899,7 +19411,7 @@
       <c r="AK457" s="6"/>
       <c r="AL457" s="6"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:38">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
@@ -18939,7 +19451,7 @@
       <c r="AK458" s="6"/>
       <c r="AL458" s="6"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:38">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
@@ -18979,7 +19491,7 @@
       <c r="AK459" s="6"/>
       <c r="AL459" s="6"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:38">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
@@ -19019,7 +19531,7 @@
       <c r="AK460" s="6"/>
       <c r="AL460" s="6"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:38">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
@@ -19059,7 +19571,7 @@
       <c r="AK461" s="6"/>
       <c r="AL461" s="6"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:38">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
@@ -19099,7 +19611,7 @@
       <c r="AK462" s="6"/>
       <c r="AL462" s="6"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:38">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
@@ -19139,7 +19651,7 @@
       <c r="AK463" s="6"/>
       <c r="AL463" s="6"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:38">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
@@ -19179,7 +19691,7 @@
       <c r="AK464" s="6"/>
       <c r="AL464" s="6"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:38">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
@@ -19219,7 +19731,7 @@
       <c r="AK465" s="6"/>
       <c r="AL465" s="6"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:38">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
@@ -19259,7 +19771,7 @@
       <c r="AK466" s="6"/>
       <c r="AL466" s="6"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:38">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
@@ -19299,7 +19811,7 @@
       <c r="AK467" s="6"/>
       <c r="AL467" s="6"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:38">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
@@ -19339,7 +19851,7 @@
       <c r="AK468" s="6"/>
       <c r="AL468" s="6"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:38">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
@@ -19379,7 +19891,7 @@
       <c r="AK469" s="6"/>
       <c r="AL469" s="6"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:38">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
@@ -19419,7 +19931,7 @@
       <c r="AK470" s="6"/>
       <c r="AL470" s="6"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:38">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
@@ -19459,7 +19971,7 @@
       <c r="AK471" s="6"/>
       <c r="AL471" s="6"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:38">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
@@ -19499,7 +20011,7 @@
       <c r="AK472" s="6"/>
       <c r="AL472" s="6"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:38">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
@@ -19539,7 +20051,7 @@
       <c r="AK473" s="6"/>
       <c r="AL473" s="6"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:38">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
@@ -19579,7 +20091,7 @@
       <c r="AK474" s="6"/>
       <c r="AL474" s="6"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:38">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
@@ -19619,7 +20131,7 @@
       <c r="AK475" s="6"/>
       <c r="AL475" s="6"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:38">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
@@ -19659,7 +20171,7 @@
       <c r="AK476" s="6"/>
       <c r="AL476" s="6"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:38">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
@@ -19699,7 +20211,7 @@
       <c r="AK477" s="6"/>
       <c r="AL477" s="6"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:38">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
@@ -19739,7 +20251,7 @@
       <c r="AK478" s="6"/>
       <c r="AL478" s="6"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:38">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
@@ -19779,7 +20291,7 @@
       <c r="AK479" s="6"/>
       <c r="AL479" s="6"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:38">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
@@ -19819,7 +20331,7 @@
       <c r="AK480" s="6"/>
       <c r="AL480" s="6"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:38">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
@@ -19859,7 +20371,7 @@
       <c r="AK481" s="6"/>
       <c r="AL481" s="6"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:38">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
@@ -19899,7 +20411,7 @@
       <c r="AK482" s="6"/>
       <c r="AL482" s="6"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:38">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
@@ -19939,7 +20451,7 @@
       <c r="AK483" s="6"/>
       <c r="AL483" s="6"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:38">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
@@ -19979,7 +20491,7 @@
       <c r="AK484" s="6"/>
       <c r="AL484" s="6"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:38">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
@@ -20019,7 +20531,7 @@
       <c r="AK485" s="6"/>
       <c r="AL485" s="6"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:38">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -20059,7 +20571,7 @@
       <c r="AK486" s="6"/>
       <c r="AL486" s="6"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:38">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -20099,7 +20611,7 @@
       <c r="AK487" s="6"/>
       <c r="AL487" s="6"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:38">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -20139,7 +20651,7 @@
       <c r="AK488" s="6"/>
       <c r="AL488" s="6"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:38">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -20179,7 +20691,7 @@
       <c r="AK489" s="6"/>
       <c r="AL489" s="6"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:38">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -20219,7 +20731,7 @@
       <c r="AK490" s="6"/>
       <c r="AL490" s="6"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:38">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -20259,7 +20771,7 @@
       <c r="AK491" s="6"/>
       <c r="AL491" s="6"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:38">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -20299,7 +20811,7 @@
       <c r="AK492" s="6"/>
       <c r="AL492" s="6"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:38">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -20339,7 +20851,7 @@
       <c r="AK493" s="6"/>
       <c r="AL493" s="6"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:38">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -20379,7 +20891,7 @@
       <c r="AK494" s="6"/>
       <c r="AL494" s="6"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:38">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -20419,7 +20931,7 @@
       <c r="AK495" s="6"/>
       <c r="AL495" s="6"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:38">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -20459,7 +20971,7 @@
       <c r="AK496" s="6"/>
       <c r="AL496" s="6"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:38">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -20499,7 +21011,7 @@
       <c r="AK497" s="6"/>
       <c r="AL497" s="6"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:38">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -20539,7 +21051,7 @@
       <c r="AK498" s="6"/>
       <c r="AL498" s="6"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:38">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -20579,7 +21091,7 @@
       <c r="AK499" s="6"/>
       <c r="AL499" s="6"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:38">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -20619,7 +21131,7 @@
       <c r="AK500" s="6"/>
       <c r="AL500" s="6"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:38">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -20659,7 +21171,7 @@
       <c r="AK501" s="6"/>
       <c r="AL501" s="6"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:38">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -20699,7 +21211,7 @@
       <c r="AK502" s="6"/>
       <c r="AL502" s="6"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:38">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -20739,7 +21251,7 @@
       <c r="AK503" s="6"/>
       <c r="AL503" s="6"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:38">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -20779,7 +21291,7 @@
       <c r="AK504" s="6"/>
       <c r="AL504" s="6"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:38">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -20819,7 +21331,7 @@
       <c r="AK505" s="6"/>
       <c r="AL505" s="6"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:38">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -20859,7 +21371,7 @@
       <c r="AK506" s="6"/>
       <c r="AL506" s="6"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:38">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -20899,7 +21411,7 @@
       <c r="AK507" s="6"/>
       <c r="AL507" s="6"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:38">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -20939,7 +21451,7 @@
       <c r="AK508" s="6"/>
       <c r="AL508" s="6"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:38">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -20979,7 +21491,7 @@
       <c r="AK509" s="6"/>
       <c r="AL509" s="6"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:38">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -21019,7 +21531,7 @@
       <c r="AK510" s="6"/>
       <c r="AL510" s="6"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:38">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -21059,7 +21571,7 @@
       <c r="AK511" s="6"/>
       <c r="AL511" s="6"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:38">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -21099,7 +21611,7 @@
       <c r="AK512" s="6"/>
       <c r="AL512" s="6"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:38">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -21139,7 +21651,7 @@
       <c r="AK513" s="6"/>
       <c r="AL513" s="6"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:38">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -21179,7 +21691,7 @@
       <c r="AK514" s="6"/>
       <c r="AL514" s="6"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:38">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -21219,7 +21731,7 @@
       <c r="AK515" s="6"/>
       <c r="AL515" s="6"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:38">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -21259,7 +21771,7 @@
       <c r="AK516" s="6"/>
       <c r="AL516" s="6"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:38">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -21299,7 +21811,7 @@
       <c r="AK517" s="6"/>
       <c r="AL517" s="6"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:38">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -21339,7 +21851,7 @@
       <c r="AK518" s="6"/>
       <c r="AL518" s="6"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:38">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -21379,7 +21891,7 @@
       <c r="AK519" s="6"/>
       <c r="AL519" s="6"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:38">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -21419,7 +21931,7 @@
       <c r="AK520" s="6"/>
       <c r="AL520" s="6"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:38">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -21459,7 +21971,7 @@
       <c r="AK521" s="6"/>
       <c r="AL521" s="6"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:38">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -21499,7 +22011,7 @@
       <c r="AK522" s="6"/>
       <c r="AL522" s="6"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:38">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -21539,7 +22051,7 @@
       <c r="AK523" s="6"/>
       <c r="AL523" s="6"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:38">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -21579,7 +22091,7 @@
       <c r="AK524" s="6"/>
       <c r="AL524" s="6"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:38">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -21619,7 +22131,7 @@
       <c r="AK525" s="6"/>
       <c r="AL525" s="6"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:38">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -21659,7 +22171,7 @@
       <c r="AK526" s="6"/>
       <c r="AL526" s="6"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:38">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -21699,7 +22211,7 @@
       <c r="AK527" s="6"/>
       <c r="AL527" s="6"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:38">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -21739,7 +22251,7 @@
       <c r="AK528" s="6"/>
       <c r="AL528" s="6"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:38">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -21779,7 +22291,7 @@
       <c r="AK529" s="6"/>
       <c r="AL529" s="6"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:38">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -21819,7 +22331,7 @@
       <c r="AK530" s="6"/>
       <c r="AL530" s="6"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:38">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -21859,7 +22371,7 @@
       <c r="AK531" s="6"/>
       <c r="AL531" s="6"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:38">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -21899,7 +22411,7 @@
       <c r="AK532" s="6"/>
       <c r="AL532" s="6"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:38">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -21939,7 +22451,7 @@
       <c r="AK533" s="6"/>
       <c r="AL533" s="6"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:38">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -21979,7 +22491,7 @@
       <c r="AK534" s="6"/>
       <c r="AL534" s="6"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:38">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -22019,7 +22531,7 @@
       <c r="AK535" s="6"/>
       <c r="AL535" s="6"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:38">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -22059,7 +22571,7 @@
       <c r="AK536" s="6"/>
       <c r="AL536" s="6"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:38">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -22099,7 +22611,7 @@
       <c r="AK537" s="6"/>
       <c r="AL537" s="6"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:38">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -22139,7 +22651,7 @@
       <c r="AK538" s="6"/>
       <c r="AL538" s="6"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:38">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -22179,7 +22691,7 @@
       <c r="AK539" s="6"/>
       <c r="AL539" s="6"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:38">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -22219,7 +22731,7 @@
       <c r="AK540" s="6"/>
       <c r="AL540" s="6"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:38">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -22259,7 +22771,7 @@
       <c r="AK541" s="6"/>
       <c r="AL541" s="6"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:38">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -22299,7 +22811,7 @@
       <c r="AK542" s="6"/>
       <c r="AL542" s="6"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:38">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -22339,7 +22851,7 @@
       <c r="AK543" s="6"/>
       <c r="AL543" s="6"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:38">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -22379,7 +22891,7 @@
       <c r="AK544" s="6"/>
       <c r="AL544" s="6"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:38">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -22419,7 +22931,7 @@
       <c r="AK545" s="6"/>
       <c r="AL545" s="6"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:38">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -22459,7 +22971,7 @@
       <c r="AK546" s="6"/>
       <c r="AL546" s="6"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:38">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -22499,7 +23011,7 @@
       <c r="AK547" s="6"/>
       <c r="AL547" s="6"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:38">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -22539,7 +23051,7 @@
       <c r="AK548" s="6"/>
       <c r="AL548" s="6"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:38">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -22579,7 +23091,7 @@
       <c r="AK549" s="6"/>
       <c r="AL549" s="6"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:38">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -22619,7 +23131,7 @@
       <c r="AK550" s="6"/>
       <c r="AL550" s="6"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:38">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -22659,7 +23171,7 @@
       <c r="AK551" s="6"/>
       <c r="AL551" s="6"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:38">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -22699,7 +23211,7 @@
       <c r="AK552" s="6"/>
       <c r="AL552" s="6"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:38">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -22739,7 +23251,7 @@
       <c r="AK553" s="6"/>
       <c r="AL553" s="6"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:38">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -22779,7 +23291,7 @@
       <c r="AK554" s="6"/>
       <c r="AL554" s="6"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:38">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -22819,7 +23331,7 @@
       <c r="AK555" s="6"/>
       <c r="AL555" s="6"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:38">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -22859,7 +23371,7 @@
       <c r="AK556" s="6"/>
       <c r="AL556" s="6"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:38">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -22899,7 +23411,7 @@
       <c r="AK557" s="6"/>
       <c r="AL557" s="6"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:38">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -22939,7 +23451,7 @@
       <c r="AK558" s="6"/>
       <c r="AL558" s="6"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:38">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -22979,7 +23491,7 @@
       <c r="AK559" s="6"/>
       <c r="AL559" s="6"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:38">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -23019,7 +23531,7 @@
       <c r="AK560" s="6"/>
       <c r="AL560" s="6"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:38">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -23059,7 +23571,7 @@
       <c r="AK561" s="6"/>
       <c r="AL561" s="6"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:38">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -23099,7 +23611,7 @@
       <c r="AK562" s="6"/>
       <c r="AL562" s="6"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:38">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -23139,7 +23651,7 @@
       <c r="AK563" s="6"/>
       <c r="AL563" s="6"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:38">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -23179,7 +23691,7 @@
       <c r="AK564" s="6"/>
       <c r="AL564" s="6"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:38">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -23219,7 +23731,7 @@
       <c r="AK565" s="6"/>
       <c r="AL565" s="6"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:38">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -23259,7 +23771,7 @@
       <c r="AK566" s="6"/>
       <c r="AL566" s="6"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:38">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -23299,7 +23811,7 @@
       <c r="AK567" s="6"/>
       <c r="AL567" s="6"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:38">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -23339,7 +23851,7 @@
       <c r="AK568" s="6"/>
       <c r="AL568" s="6"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:38">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -23379,7 +23891,7 @@
       <c r="AK569" s="6"/>
       <c r="AL569" s="6"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:38">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -23419,7 +23931,7 @@
       <c r="AK570" s="6"/>
       <c r="AL570" s="6"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:38">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -23459,7 +23971,7 @@
       <c r="AK571" s="6"/>
       <c r="AL571" s="6"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:38">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -23499,7 +24011,7 @@
       <c r="AK572" s="6"/>
       <c r="AL572" s="6"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:38">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -23539,7 +24051,7 @@
       <c r="AK573" s="6"/>
       <c r="AL573" s="6"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:38">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -23579,7 +24091,7 @@
       <c r="AK574" s="6"/>
       <c r="AL574" s="6"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:38">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -23619,7 +24131,7 @@
       <c r="AK575" s="6"/>
       <c r="AL575" s="6"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:38">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -23659,7 +24171,7 @@
       <c r="AK576" s="6"/>
       <c r="AL576" s="6"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:38">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -23699,7 +24211,7 @@
       <c r="AK577" s="6"/>
       <c r="AL577" s="6"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:38">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -23739,7 +24251,7 @@
       <c r="AK578" s="6"/>
       <c r="AL578" s="6"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:38">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -23779,7 +24291,7 @@
       <c r="AK579" s="6"/>
       <c r="AL579" s="6"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:38">
       <c r="A580" s="6"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
@@ -23819,7 +24331,7 @@
       <c r="AK580" s="6"/>
       <c r="AL580" s="6"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:38">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -23859,7 +24371,7 @@
       <c r="AK581" s="6"/>
       <c r="AL581" s="6"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:38">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
@@ -23899,7 +24411,7 @@
       <c r="AK582" s="6"/>
       <c r="AL582" s="6"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:38">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
@@ -23939,7 +24451,7 @@
       <c r="AK583" s="6"/>
       <c r="AL583" s="6"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:38">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -23979,7 +24491,7 @@
       <c r="AK584" s="6"/>
       <c r="AL584" s="6"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:38">
       <c r="A585" s="6"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
@@ -24019,7 +24531,7 @@
       <c r="AK585" s="6"/>
       <c r="AL585" s="6"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:38">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
@@ -24059,7 +24571,7 @@
       <c r="AK586" s="6"/>
       <c r="AL586" s="6"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:38">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -24099,7 +24611,7 @@
       <c r="AK587" s="6"/>
       <c r="AL587" s="6"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:38">
       <c r="A588" s="6"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
@@ -24139,7 +24651,7 @@
       <c r="AK588" s="6"/>
       <c r="AL588" s="6"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:38">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -24179,7 +24691,7 @@
       <c r="AK589" s="6"/>
       <c r="AL589" s="6"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:38">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -24219,7 +24731,7 @@
       <c r="AK590" s="6"/>
       <c r="AL590" s="6"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:38">
       <c r="A591" s="6"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
@@ -24259,7 +24771,7 @@
       <c r="AK591" s="6"/>
       <c r="AL591" s="6"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:38">
       <c r="A592" s="6"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
@@ -24299,7 +24811,7 @@
       <c r="AK592" s="6"/>
       <c r="AL592" s="6"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:38">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -24339,7 +24851,7 @@
       <c r="AK593" s="6"/>
       <c r="AL593" s="6"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:38">
       <c r="A594" s="6"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
@@ -24379,7 +24891,7 @@
       <c r="AK594" s="6"/>
       <c r="AL594" s="6"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:38">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
@@ -24419,7 +24931,7 @@
       <c r="AK595" s="6"/>
       <c r="AL595" s="6"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:38">
       <c r="A596" s="6"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
@@ -24459,7 +24971,7 @@
       <c r="AK596" s="6"/>
       <c r="AL596" s="6"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:38">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
@@ -24499,7 +25011,7 @@
       <c r="AK597" s="6"/>
       <c r="AL597" s="6"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:38">
       <c r="A598" s="6"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
@@ -24539,7 +25051,7 @@
       <c r="AK598" s="6"/>
       <c r="AL598" s="6"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:38">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
@@ -24579,7 +25091,7 @@
       <c r="AK599" s="6"/>
       <c r="AL599" s="6"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:38">
       <c r="A600" s="6"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
@@ -24619,7 +25131,7 @@
       <c r="AK600" s="6"/>
       <c r="AL600" s="6"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:38">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
@@ -24659,7 +25171,7 @@
       <c r="AK601" s="6"/>
       <c r="AL601" s="6"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:38">
       <c r="A602" s="6"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
@@ -24699,7 +25211,7 @@
       <c r="AK602" s="6"/>
       <c r="AL602" s="6"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:38">
       <c r="A603" s="6"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
@@ -24739,7 +25251,7 @@
       <c r="AK603" s="6"/>
       <c r="AL603" s="6"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:38">
       <c r="A604" s="6"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
@@ -24779,7 +25291,7 @@
       <c r="AK604" s="6"/>
       <c r="AL604" s="6"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:38">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -24819,7 +25331,7 @@
       <c r="AK605" s="6"/>
       <c r="AL605" s="6"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:38">
       <c r="A606" s="6"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
@@ -24859,7 +25371,7 @@
       <c r="AK606" s="6"/>
       <c r="AL606" s="6"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:38">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -24899,7 +25411,7 @@
       <c r="AK607" s="6"/>
       <c r="AL607" s="6"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:38">
       <c r="A608" s="6"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
@@ -24939,7 +25451,7 @@
       <c r="AK608" s="6"/>
       <c r="AL608" s="6"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:38">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -24979,7 +25491,7 @@
       <c r="AK609" s="6"/>
       <c r="AL609" s="6"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:38">
       <c r="A610" s="6"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
@@ -25019,7 +25531,7 @@
       <c r="AK610" s="6"/>
       <c r="AL610" s="6"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:38">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -25059,7 +25571,7 @@
       <c r="AK611" s="6"/>
       <c r="AL611" s="6"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:38">
       <c r="A612" s="6"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
@@ -25099,7 +25611,7 @@
       <c r="AK612" s="6"/>
       <c r="AL612" s="6"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:38">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -25139,7 +25651,7 @@
       <c r="AK613" s="6"/>
       <c r="AL613" s="6"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:38">
       <c r="A614" s="6"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
@@ -25179,7 +25691,7 @@
       <c r="AK614" s="6"/>
       <c r="AL614" s="6"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:38">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -25219,7 +25731,7 @@
       <c r="AK615" s="6"/>
       <c r="AL615" s="6"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:38">
       <c r="A616" s="6"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
@@ -25259,7 +25771,7 @@
       <c r="AK616" s="6"/>
       <c r="AL616" s="6"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:38">
       <c r="A617" s="6"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
@@ -25299,7 +25811,7 @@
       <c r="AK617" s="6"/>
       <c r="AL617" s="6"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:38">
       <c r="A618" s="6"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
@@ -25339,7 +25851,7 @@
       <c r="AK618" s="6"/>
       <c r="AL618" s="6"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:38">
       <c r="A619" s="6"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
@@ -25379,7 +25891,7 @@
       <c r="AK619" s="6"/>
       <c r="AL619" s="6"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:38">
       <c r="A620" s="6"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
@@ -25419,7 +25931,7 @@
       <c r="AK620" s="6"/>
       <c r="AL620" s="6"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:38">
       <c r="A621" s="6"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
@@ -25459,7 +25971,7 @@
       <c r="AK621" s="6"/>
       <c r="AL621" s="6"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:38">
       <c r="A622" s="6"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
@@ -25499,7 +26011,7 @@
       <c r="AK622" s="6"/>
       <c r="AL622" s="6"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:38">
       <c r="A623" s="6"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
@@ -25539,7 +26051,7 @@
       <c r="AK623" s="6"/>
       <c r="AL623" s="6"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:38">
       <c r="A624" s="6"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
@@ -25579,7 +26091,7 @@
       <c r="AK624" s="6"/>
       <c r="AL624" s="6"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:38">
       <c r="A625" s="6"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
@@ -25619,7 +26131,7 @@
       <c r="AK625" s="6"/>
       <c r="AL625" s="6"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:38">
       <c r="A626" s="6"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
@@ -25659,7 +26171,7 @@
       <c r="AK626" s="6"/>
       <c r="AL626" s="6"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:38">
       <c r="A627" s="6"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
@@ -25699,7 +26211,7 @@
       <c r="AK627" s="6"/>
       <c r="AL627" s="6"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:38">
       <c r="A628" s="6"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
@@ -25739,7 +26251,7 @@
       <c r="AK628" s="6"/>
       <c r="AL628" s="6"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:38">
       <c r="A629" s="6"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
@@ -25779,7 +26291,7 @@
       <c r="AK629" s="6"/>
       <c r="AL629" s="6"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:38">
       <c r="A630" s="6"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
@@ -25819,7 +26331,7 @@
       <c r="AK630" s="6"/>
       <c r="AL630" s="6"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:38">
       <c r="A631" s="6"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
@@ -25859,7 +26371,7 @@
       <c r="AK631" s="6"/>
       <c r="AL631" s="6"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:38">
       <c r="A632" s="6"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
@@ -25899,7 +26411,7 @@
       <c r="AK632" s="6"/>
       <c r="AL632" s="6"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:38">
       <c r="A633" s="6"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
@@ -25939,7 +26451,7 @@
       <c r="AK633" s="6"/>
       <c r="AL633" s="6"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:38">
       <c r="A634" s="6"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
@@ -25979,7 +26491,7 @@
       <c r="AK634" s="6"/>
       <c r="AL634" s="6"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:38">
       <c r="A635" s="6"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
@@ -26019,7 +26531,7 @@
       <c r="AK635" s="6"/>
       <c r="AL635" s="6"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:38">
       <c r="A636" s="6"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
@@ -26059,7 +26571,7 @@
       <c r="AK636" s="6"/>
       <c r="AL636" s="6"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:38">
       <c r="A637" s="6"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
@@ -26099,7 +26611,7 @@
       <c r="AK637" s="6"/>
       <c r="AL637" s="6"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:38">
       <c r="A638" s="6"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
@@ -26139,7 +26651,7 @@
       <c r="AK638" s="6"/>
       <c r="AL638" s="6"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:38">
       <c r="A639" s="6"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
@@ -26179,7 +26691,7 @@
       <c r="AK639" s="6"/>
       <c r="AL639" s="6"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:38">
       <c r="A640" s="6"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
@@ -26219,7 +26731,7 @@
       <c r="AK640" s="6"/>
       <c r="AL640" s="6"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:38">
       <c r="A641" s="6"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
@@ -26259,7 +26771,7 @@
       <c r="AK641" s="6"/>
       <c r="AL641" s="6"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:38">
       <c r="A642" s="6"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
@@ -26299,7 +26811,7 @@
       <c r="AK642" s="6"/>
       <c r="AL642" s="6"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:38">
       <c r="A643" s="6"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
@@ -26339,7 +26851,7 @@
       <c r="AK643" s="6"/>
       <c r="AL643" s="6"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:38">
       <c r="A644" s="6"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
@@ -26379,7 +26891,7 @@
       <c r="AK644" s="6"/>
       <c r="AL644" s="6"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:38">
       <c r="A645" s="6"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
@@ -26419,7 +26931,7 @@
       <c r="AK645" s="6"/>
       <c r="AL645" s="6"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:38">
       <c r="A646" s="6"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
@@ -26459,7 +26971,7 @@
       <c r="AK646" s="6"/>
       <c r="AL646" s="6"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:38">
       <c r="A647" s="6"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
@@ -26499,7 +27011,7 @@
       <c r="AK647" s="6"/>
       <c r="AL647" s="6"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:38">
       <c r="A648" s="6"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
@@ -26539,7 +27051,7 @@
       <c r="AK648" s="6"/>
       <c r="AL648" s="6"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:38">
       <c r="A649" s="6"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
@@ -26579,7 +27091,7 @@
       <c r="AK649" s="6"/>
       <c r="AL649" s="6"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:38">
       <c r="A650" s="6"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
@@ -26619,7 +27131,7 @@
       <c r="AK650" s="6"/>
       <c r="AL650" s="6"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:38">
       <c r="A651" s="6"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
@@ -26659,7 +27171,7 @@
       <c r="AK651" s="6"/>
       <c r="AL651" s="6"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:38">
       <c r="A652" s="6"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
@@ -26699,7 +27211,7 @@
       <c r="AK652" s="6"/>
       <c r="AL652" s="6"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:38">
       <c r="A653" s="6"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
@@ -26739,7 +27251,7 @@
       <c r="AK653" s="6"/>
       <c r="AL653" s="6"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:38">
       <c r="A654" s="6"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
@@ -26779,7 +27291,7 @@
       <c r="AK654" s="6"/>
       <c r="AL654" s="6"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:38">
       <c r="A655" s="6"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
@@ -26819,7 +27331,7 @@
       <c r="AK655" s="6"/>
       <c r="AL655" s="6"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:38">
       <c r="A656" s="6"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
@@ -26859,7 +27371,7 @@
       <c r="AK656" s="6"/>
       <c r="AL656" s="6"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:38">
       <c r="A657" s="6"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
@@ -26899,7 +27411,7 @@
       <c r="AK657" s="6"/>
       <c r="AL657" s="6"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:38">
       <c r="A658" s="6"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
@@ -26939,7 +27451,7 @@
       <c r="AK658" s="6"/>
       <c r="AL658" s="6"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:38">
       <c r="A659" s="6"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
@@ -26979,7 +27491,7 @@
       <c r="AK659" s="6"/>
       <c r="AL659" s="6"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:38">
       <c r="A660" s="6"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
@@ -27019,7 +27531,7 @@
       <c r="AK660" s="6"/>
       <c r="AL660" s="6"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:38">
       <c r="A661" s="6"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
@@ -27059,7 +27571,7 @@
       <c r="AK661" s="6"/>
       <c r="AL661" s="6"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:38">
       <c r="A662" s="6"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
@@ -27099,7 +27611,7 @@
       <c r="AK662" s="6"/>
       <c r="AL662" s="6"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:38">
       <c r="A663" s="6"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
@@ -27139,7 +27651,7 @@
       <c r="AK663" s="6"/>
       <c r="AL663" s="6"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:38">
       <c r="A664" s="6"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
@@ -27179,7 +27691,7 @@
       <c r="AK664" s="6"/>
       <c r="AL664" s="6"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:38">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -27219,7 +27731,7 @@
       <c r="AK665" s="6"/>
       <c r="AL665" s="6"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:38">
       <c r="A666" s="6"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
@@ -27259,7 +27771,7 @@
       <c r="AK666" s="6"/>
       <c r="AL666" s="6"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:38">
       <c r="A667" s="6"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
@@ -27299,7 +27811,7 @@
       <c r="AK667" s="6"/>
       <c r="AL667" s="6"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:38">
       <c r="A668" s="6"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
@@ -27339,7 +27851,7 @@
       <c r="AK668" s="6"/>
       <c r="AL668" s="6"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:38">
       <c r="A669" s="6"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
@@ -27379,7 +27891,7 @@
       <c r="AK669" s="6"/>
       <c r="AL669" s="6"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:38">
       <c r="A670" s="6"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
@@ -27419,7 +27931,7 @@
       <c r="AK670" s="6"/>
       <c r="AL670" s="6"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:38">
       <c r="A671" s="6"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
@@ -27459,7 +27971,7 @@
       <c r="AK671" s="6"/>
       <c r="AL671" s="6"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:38">
       <c r="A672" s="6"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
@@ -27499,7 +28011,7 @@
       <c r="AK672" s="6"/>
       <c r="AL672" s="6"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:38">
       <c r="A673" s="6"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
@@ -27539,7 +28051,7 @@
       <c r="AK673" s="6"/>
       <c r="AL673" s="6"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:38">
       <c r="A674" s="6"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
@@ -27579,7 +28091,7 @@
       <c r="AK674" s="6"/>
       <c r="AL674" s="6"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:38">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -27619,7 +28131,7 @@
       <c r="AK675" s="6"/>
       <c r="AL675" s="6"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:38">
       <c r="A676" s="6"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
@@ -27659,7 +28171,7 @@
       <c r="AK676" s="6"/>
       <c r="AL676" s="6"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:38">
       <c r="A677" s="6"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
@@ -27699,7 +28211,7 @@
       <c r="AK677" s="6"/>
       <c r="AL677" s="6"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:38">
       <c r="A678" s="6"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
@@ -27739,7 +28251,7 @@
       <c r="AK678" s="6"/>
       <c r="AL678" s="6"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:38">
       <c r="A679" s="6"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
@@ -27779,7 +28291,7 @@
       <c r="AK679" s="6"/>
       <c r="AL679" s="6"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:38">
       <c r="A680" s="6"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
@@ -27819,7 +28331,7 @@
       <c r="AK680" s="6"/>
       <c r="AL680" s="6"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:38">
       <c r="A681" s="6"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
@@ -27859,7 +28371,7 @@
       <c r="AK681" s="6"/>
       <c r="AL681" s="6"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:38">
       <c r="A682" s="6"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
@@ -27899,7 +28411,7 @@
       <c r="AK682" s="6"/>
       <c r="AL682" s="6"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:38">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
@@ -27939,7 +28451,7 @@
       <c r="AK683" s="6"/>
       <c r="AL683" s="6"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:38">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
@@ -27979,7 +28491,7 @@
       <c r="AK684" s="6"/>
       <c r="AL684" s="6"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:38">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -28019,7 +28531,7 @@
       <c r="AK685" s="6"/>
       <c r="AL685" s="6"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:38">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
@@ -28059,7 +28571,7 @@
       <c r="AK686" s="6"/>
       <c r="AL686" s="6"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:38">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
@@ -28099,7 +28611,7 @@
       <c r="AK687" s="6"/>
       <c r="AL687" s="6"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:38">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
@@ -28139,7 +28651,7 @@
       <c r="AK688" s="6"/>
       <c r="AL688" s="6"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:38">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
@@ -28179,7 +28691,7 @@
       <c r="AK689" s="6"/>
       <c r="AL689" s="6"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:38">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
@@ -28219,7 +28731,7 @@
       <c r="AK690" s="6"/>
       <c r="AL690" s="6"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:38">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
@@ -28259,7 +28771,7 @@
       <c r="AK691" s="6"/>
       <c r="AL691" s="6"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:38">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
@@ -28299,7 +28811,7 @@
       <c r="AK692" s="6"/>
       <c r="AL692" s="6"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:38">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
@@ -28339,7 +28851,7 @@
       <c r="AK693" s="6"/>
       <c r="AL693" s="6"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:38">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
@@ -28379,7 +28891,7 @@
       <c r="AK694" s="6"/>
       <c r="AL694" s="6"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:38">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -28419,7 +28931,7 @@
       <c r="AK695" s="6"/>
       <c r="AL695" s="6"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:38">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
@@ -28459,7 +28971,7 @@
       <c r="AK696" s="6"/>
       <c r="AL696" s="6"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:38">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
@@ -28499,7 +29011,7 @@
       <c r="AK697" s="6"/>
       <c r="AL697" s="6"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:38">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
@@ -28539,7 +29051,7 @@
       <c r="AK698" s="6"/>
       <c r="AL698" s="6"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:38">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
@@ -28579,7 +29091,7 @@
       <c r="AK699" s="6"/>
       <c r="AL699" s="6"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:38">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
@@ -28619,7 +29131,7 @@
       <c r="AK700" s="6"/>
       <c r="AL700" s="6"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:38">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
@@ -28659,7 +29171,7 @@
       <c r="AK701" s="6"/>
       <c r="AL701" s="6"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:38">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
@@ -28699,7 +29211,7 @@
       <c r="AK702" s="6"/>
       <c r="AL702" s="6"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:38">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
@@ -28739,7 +29251,7 @@
       <c r="AK703" s="6"/>
       <c r="AL703" s="6"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:38">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
@@ -28779,7 +29291,7 @@
       <c r="AK704" s="6"/>
       <c r="AL704" s="6"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:38">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -28819,7 +29331,7 @@
       <c r="AK705" s="6"/>
       <c r="AL705" s="6"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:38">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
@@ -28859,7 +29371,7 @@
       <c r="AK706" s="6"/>
       <c r="AL706" s="6"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:38">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
@@ -28899,7 +29411,7 @@
       <c r="AK707" s="6"/>
       <c r="AL707" s="6"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:38">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
@@ -28939,7 +29451,7 @@
       <c r="AK708" s="6"/>
       <c r="AL708" s="6"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:38">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
@@ -28979,7 +29491,7 @@
       <c r="AK709" s="6"/>
       <c r="AL709" s="6"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:38">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
@@ -29019,7 +29531,7 @@
       <c r="AK710" s="6"/>
       <c r="AL710" s="6"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:38">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -29059,7 +29571,7 @@
       <c r="AK711" s="6"/>
       <c r="AL711" s="6"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:38">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
@@ -29099,7 +29611,7 @@
       <c r="AK712" s="6"/>
       <c r="AL712" s="6"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:38">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
@@ -29139,7 +29651,7 @@
       <c r="AK713" s="6"/>
       <c r="AL713" s="6"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:38">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
@@ -29179,7 +29691,7 @@
       <c r="AK714" s="6"/>
       <c r="AL714" s="6"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:38">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -29219,7 +29731,7 @@
       <c r="AK715" s="6"/>
       <c r="AL715" s="6"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:38">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
@@ -29259,7 +29771,7 @@
       <c r="AK716" s="6"/>
       <c r="AL716" s="6"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:38">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
@@ -29299,7 +29811,7 @@
       <c r="AK717" s="6"/>
       <c r="AL717" s="6"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:38">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
@@ -29339,7 +29851,7 @@
       <c r="AK718" s="6"/>
       <c r="AL718" s="6"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:38">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
@@ -29379,7 +29891,7 @@
       <c r="AK719" s="6"/>
       <c r="AL719" s="6"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:38">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
@@ -29419,7 +29931,7 @@
       <c r="AK720" s="6"/>
       <c r="AL720" s="6"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:38">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
@@ -29459,7 +29971,7 @@
       <c r="AK721" s="6"/>
       <c r="AL721" s="6"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:38">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
@@ -29499,7 +30011,7 @@
       <c r="AK722" s="6"/>
       <c r="AL722" s="6"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:38">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
@@ -29539,7 +30051,7 @@
       <c r="AK723" s="6"/>
       <c r="AL723" s="6"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:38">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
@@ -29579,7 +30091,7 @@
       <c r="AK724" s="6"/>
       <c r="AL724" s="6"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:38">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -29619,7 +30131,7 @@
       <c r="AK725" s="6"/>
       <c r="AL725" s="6"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:38">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
@@ -29659,7 +30171,7 @@
       <c r="AK726" s="6"/>
       <c r="AL726" s="6"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:38">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
@@ -29699,7 +30211,7 @@
       <c r="AK727" s="6"/>
       <c r="AL727" s="6"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:38">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
@@ -29739,7 +30251,7 @@
       <c r="AK728" s="6"/>
       <c r="AL728" s="6"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:38">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
@@ -29779,7 +30291,7 @@
       <c r="AK729" s="6"/>
       <c r="AL729" s="6"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:38">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
@@ -29819,7 +30331,7 @@
       <c r="AK730" s="6"/>
       <c r="AL730" s="6"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:38">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
@@ -29859,7 +30371,7 @@
       <c r="AK731" s="6"/>
       <c r="AL731" s="6"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:38">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
@@ -29899,7 +30411,7 @@
       <c r="AK732" s="6"/>
       <c r="AL732" s="6"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:38">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
@@ -29939,7 +30451,7 @@
       <c r="AK733" s="6"/>
       <c r="AL733" s="6"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:38">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
@@ -29979,7 +30491,7 @@
       <c r="AK734" s="6"/>
       <c r="AL734" s="6"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:38">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -30019,7 +30531,7 @@
       <c r="AK735" s="6"/>
       <c r="AL735" s="6"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:38">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
@@ -30059,7 +30571,7 @@
       <c r="AK736" s="6"/>
       <c r="AL736" s="6"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:38">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
@@ -30099,7 +30611,7 @@
       <c r="AK737" s="6"/>
       <c r="AL737" s="6"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:38">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
@@ -30139,7 +30651,7 @@
       <c r="AK738" s="6"/>
       <c r="AL738" s="6"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:38">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
@@ -30179,7 +30691,7 @@
       <c r="AK739" s="6"/>
       <c r="AL739" s="6"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:38">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
@@ -30219,7 +30731,7 @@
       <c r="AK740" s="6"/>
       <c r="AL740" s="6"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:38">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
@@ -30259,7 +30771,7 @@
       <c r="AK741" s="6"/>
       <c r="AL741" s="6"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:38">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
@@ -30299,7 +30811,7 @@
       <c r="AK742" s="6"/>
       <c r="AL742" s="6"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:38">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
@@ -30339,7 +30851,7 @@
       <c r="AK743" s="6"/>
       <c r="AL743" s="6"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:38">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
@@ -30379,7 +30891,7 @@
       <c r="AK744" s="6"/>
       <c r="AL744" s="6"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:38">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
@@ -30419,7 +30931,7 @@
       <c r="AK745" s="6"/>
       <c r="AL745" s="6"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:38">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
@@ -30459,7 +30971,7 @@
       <c r="AK746" s="6"/>
       <c r="AL746" s="6"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:38">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -30499,7 +31011,7 @@
       <c r="AK747" s="6"/>
       <c r="AL747" s="6"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:38">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
@@ -30539,7 +31051,7 @@
       <c r="AK748" s="6"/>
       <c r="AL748" s="6"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:38">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
@@ -30579,7 +31091,7 @@
       <c r="AK749" s="6"/>
       <c r="AL749" s="6"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:38">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
@@ -30619,7 +31131,7 @@
       <c r="AK750" s="6"/>
       <c r="AL750" s="6"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:38">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
@@ -30659,7 +31171,7 @@
       <c r="AK751" s="6"/>
       <c r="AL751" s="6"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:38">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
@@ -30699,7 +31211,7 @@
       <c r="AK752" s="6"/>
       <c r="AL752" s="6"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:38">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
@@ -30739,7 +31251,7 @@
       <c r="AK753" s="6"/>
       <c r="AL753" s="6"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:38">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
@@ -30779,7 +31291,7 @@
       <c r="AK754" s="6"/>
       <c r="AL754" s="6"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:38">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
@@ -30819,7 +31331,7 @@
       <c r="AK755" s="6"/>
       <c r="AL755" s="6"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:38">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
@@ -30859,7 +31371,7 @@
       <c r="AK756" s="6"/>
       <c r="AL756" s="6"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:38">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
@@ -30899,7 +31411,7 @@
       <c r="AK757" s="6"/>
       <c r="AL757" s="6"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:38">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -30939,7 +31451,7 @@
       <c r="AK758" s="6"/>
       <c r="AL758" s="6"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:38">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
@@ -30979,7 +31491,7 @@
       <c r="AK759" s="6"/>
       <c r="AL759" s="6"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:38">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
@@ -31019,7 +31531,7 @@
       <c r="AK760" s="6"/>
       <c r="AL760" s="6"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:38">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
@@ -31059,7 +31571,7 @@
       <c r="AK761" s="6"/>
       <c r="AL761" s="6"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:38">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
@@ -31099,7 +31611,7 @@
       <c r="AK762" s="6"/>
       <c r="AL762" s="6"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:38">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
@@ -31139,7 +31651,7 @@
       <c r="AK763" s="6"/>
       <c r="AL763" s="6"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:38">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
@@ -31179,7 +31691,7 @@
       <c r="AK764" s="6"/>
       <c r="AL764" s="6"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:38">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
@@ -31219,7 +31731,7 @@
       <c r="AK765" s="6"/>
       <c r="AL765" s="6"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:38">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
@@ -31259,7 +31771,7 @@
       <c r="AK766" s="6"/>
       <c r="AL766" s="6"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:38">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
@@ -31299,7 +31811,7 @@
       <c r="AK767" s="6"/>
       <c r="AL767" s="6"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:38">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
@@ -31339,7 +31851,7 @@
       <c r="AK768" s="6"/>
       <c r="AL768" s="6"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:38">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -31379,7 +31891,7 @@
       <c r="AK769" s="6"/>
       <c r="AL769" s="6"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:38">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
@@ -31419,7 +31931,7 @@
       <c r="AK770" s="6"/>
       <c r="AL770" s="6"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:38">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
@@ -31459,7 +31971,7 @@
       <c r="AK771" s="6"/>
       <c r="AL771" s="6"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:38">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
@@ -31499,7 +32011,7 @@
       <c r="AK772" s="6"/>
       <c r="AL772" s="6"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:38">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
@@ -31539,7 +32051,7 @@
       <c r="AK773" s="6"/>
       <c r="AL773" s="6"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:38">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
@@ -31579,7 +32091,7 @@
       <c r="AK774" s="6"/>
       <c r="AL774" s="6"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:38">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
@@ -31619,7 +32131,7 @@
       <c r="AK775" s="6"/>
       <c r="AL775" s="6"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:38">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
@@ -31659,7 +32171,7 @@
       <c r="AK776" s="6"/>
       <c r="AL776" s="6"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:38">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
@@ -31699,7 +32211,7 @@
       <c r="AK777" s="6"/>
       <c r="AL777" s="6"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:38">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
@@ -31739,7 +32251,7 @@
       <c r="AK778" s="6"/>
       <c r="AL778" s="6"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:38">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
@@ -31779,7 +32291,7 @@
       <c r="AK779" s="6"/>
       <c r="AL779" s="6"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:38">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -31819,7 +32331,7 @@
       <c r="AK780" s="6"/>
       <c r="AL780" s="6"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:38">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
@@ -31859,7 +32371,7 @@
       <c r="AK781" s="6"/>
       <c r="AL781" s="6"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:38">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
@@ -31899,7 +32411,7 @@
       <c r="AK782" s="6"/>
       <c r="AL782" s="6"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:38">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
@@ -31939,7 +32451,7 @@
       <c r="AK783" s="6"/>
       <c r="AL783" s="6"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:38">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
@@ -31979,7 +32491,7 @@
       <c r="AK784" s="6"/>
       <c r="AL784" s="6"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:38">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
@@ -32019,7 +32531,7 @@
       <c r="AK785" s="6"/>
       <c r="AL785" s="6"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:38">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
@@ -32059,7 +32571,7 @@
       <c r="AK786" s="6"/>
       <c r="AL786" s="6"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:38">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
@@ -32099,7 +32611,7 @@
       <c r="AK787" s="6"/>
       <c r="AL787" s="6"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:38">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
@@ -32139,7 +32651,7 @@
       <c r="AK788" s="6"/>
       <c r="AL788" s="6"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:38">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
@@ -32179,7 +32691,7 @@
       <c r="AK789" s="6"/>
       <c r="AL789" s="6"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:38">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
@@ -32219,7 +32731,7 @@
       <c r="AK790" s="6"/>
       <c r="AL790" s="6"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:38">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -32259,7 +32771,7 @@
       <c r="AK791" s="6"/>
       <c r="AL791" s="6"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:38">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
@@ -32299,7 +32811,7 @@
       <c r="AK792" s="6"/>
       <c r="AL792" s="6"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:38">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
@@ -32339,7 +32851,7 @@
       <c r="AK793" s="6"/>
       <c r="AL793" s="6"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:38">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
@@ -32379,7 +32891,7 @@
       <c r="AK794" s="6"/>
       <c r="AL794" s="6"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:38">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
@@ -32419,7 +32931,7 @@
       <c r="AK795" s="6"/>
       <c r="AL795" s="6"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:38">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
@@ -32459,7 +32971,7 @@
       <c r="AK796" s="6"/>
       <c r="AL796" s="6"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:38">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
@@ -32499,7 +33011,7 @@
       <c r="AK797" s="6"/>
       <c r="AL797" s="6"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:38">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
@@ -32539,7 +33051,7 @@
       <c r="AK798" s="6"/>
       <c r="AL798" s="6"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:38">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
@@ -32579,7 +33091,7 @@
       <c r="AK799" s="6"/>
       <c r="AL799" s="6"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:38">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
@@ -32619,7 +33131,7 @@
       <c r="AK800" s="6"/>
       <c r="AL800" s="6"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:38">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
@@ -32659,7 +33171,7 @@
       <c r="AK801" s="6"/>
       <c r="AL801" s="6"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:38">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -32699,7 +33211,7 @@
       <c r="AK802" s="6"/>
       <c r="AL802" s="6"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:38">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
@@ -32739,7 +33251,7 @@
       <c r="AK803" s="6"/>
       <c r="AL803" s="6"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:38">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
@@ -32779,7 +33291,7 @@
       <c r="AK804" s="6"/>
       <c r="AL804" s="6"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:38">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
@@ -32819,7 +33331,7 @@
       <c r="AK805" s="6"/>
       <c r="AL805" s="6"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:38">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
@@ -32859,7 +33371,7 @@
       <c r="AK806" s="6"/>
       <c r="AL806" s="6"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:38">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
@@ -32899,7 +33411,7 @@
       <c r="AK807" s="6"/>
       <c r="AL807" s="6"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:38">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
@@ -32939,7 +33451,7 @@
       <c r="AK808" s="6"/>
       <c r="AL808" s="6"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:38">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
@@ -32979,7 +33491,7 @@
       <c r="AK809" s="6"/>
       <c r="AL809" s="6"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:38">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
@@ -33019,7 +33531,7 @@
       <c r="AK810" s="6"/>
       <c r="AL810" s="6"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:38">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
@@ -33059,7 +33571,7 @@
       <c r="AK811" s="6"/>
       <c r="AL811" s="6"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:38">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
@@ -33099,7 +33611,7 @@
       <c r="AK812" s="6"/>
       <c r="AL812" s="6"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:38">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -33139,7 +33651,7 @@
       <c r="AK813" s="6"/>
       <c r="AL813" s="6"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:38">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
@@ -33179,7 +33691,7 @@
       <c r="AK814" s="6"/>
       <c r="AL814" s="6"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:38">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
@@ -33219,7 +33731,7 @@
       <c r="AK815" s="6"/>
       <c r="AL815" s="6"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:38">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
@@ -33259,7 +33771,7 @@
       <c r="AK816" s="6"/>
       <c r="AL816" s="6"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:38">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
@@ -33299,7 +33811,7 @@
       <c r="AK817" s="6"/>
       <c r="AL817" s="6"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:38">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
@@ -33339,7 +33851,7 @@
       <c r="AK818" s="6"/>
       <c r="AL818" s="6"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:38">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
@@ -33379,7 +33891,7 @@
       <c r="AK819" s="6"/>
       <c r="AL819" s="6"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:38">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
@@ -33419,7 +33931,7 @@
       <c r="AK820" s="6"/>
       <c r="AL820" s="6"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:38">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
@@ -33459,7 +33971,7 @@
       <c r="AK821" s="6"/>
       <c r="AL821" s="6"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:38">
       <c r="A822" s="6"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
@@ -33499,7 +34011,7 @@
       <c r="AK822" s="6"/>
       <c r="AL822" s="6"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:38">
       <c r="A823" s="6"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
@@ -33539,7 +34051,7 @@
       <c r="AK823" s="6"/>
       <c r="AL823" s="6"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:38">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -33579,7 +34091,7 @@
       <c r="AK824" s="6"/>
       <c r="AL824" s="6"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:38">
       <c r="A825" s="6"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
@@ -33619,7 +34131,7 @@
       <c r="AK825" s="6"/>
       <c r="AL825" s="6"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:38">
       <c r="A826" s="6"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
@@ -33659,7 +34171,7 @@
       <c r="AK826" s="6"/>
       <c r="AL826" s="6"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:38">
       <c r="A827" s="6"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
@@ -33699,7 +34211,7 @@
       <c r="AK827" s="6"/>
       <c r="AL827" s="6"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:38">
       <c r="A828" s="6"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
@@ -33739,7 +34251,7 @@
       <c r="AK828" s="6"/>
       <c r="AL828" s="6"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:38">
       <c r="A829" s="6"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
@@ -33779,7 +34291,7 @@
       <c r="AK829" s="6"/>
       <c r="AL829" s="6"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:38">
       <c r="A830" s="6"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
@@ -33819,7 +34331,7 @@
       <c r="AK830" s="6"/>
       <c r="AL830" s="6"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:38">
       <c r="A831" s="6"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
@@ -33859,7 +34371,7 @@
       <c r="AK831" s="6"/>
       <c r="AL831" s="6"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:38">
       <c r="A832" s="6"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
@@ -33899,7 +34411,7 @@
       <c r="AK832" s="6"/>
       <c r="AL832" s="6"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:38">
       <c r="A833" s="6"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
@@ -33939,7 +34451,7 @@
       <c r="AK833" s="6"/>
       <c r="AL833" s="6"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:38">
       <c r="A834" s="6"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
@@ -33979,7 +34491,7 @@
       <c r="AK834" s="6"/>
       <c r="AL834" s="6"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:38">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -34019,7 +34531,7 @@
       <c r="AK835" s="6"/>
       <c r="AL835" s="6"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:38">
       <c r="A836" s="6"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
@@ -34059,7 +34571,7 @@
       <c r="AK836" s="6"/>
       <c r="AL836" s="6"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:38">
       <c r="A837" s="6"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
@@ -34099,7 +34611,7 @@
       <c r="AK837" s="6"/>
       <c r="AL837" s="6"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:38">
       <c r="A838" s="6"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
@@ -34139,7 +34651,7 @@
       <c r="AK838" s="6"/>
       <c r="AL838" s="6"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:38">
       <c r="A839" s="6"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
@@ -34179,7 +34691,7 @@
       <c r="AK839" s="6"/>
       <c r="AL839" s="6"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:38">
       <c r="A840" s="6"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
@@ -34219,7 +34731,7 @@
       <c r="AK840" s="6"/>
       <c r="AL840" s="6"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:38">
       <c r="A841" s="6"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
@@ -34259,7 +34771,7 @@
       <c r="AK841" s="6"/>
       <c r="AL841" s="6"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:38">
       <c r="A842" s="6"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
@@ -34299,7 +34811,7 @@
       <c r="AK842" s="6"/>
       <c r="AL842" s="6"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:38">
       <c r="A843" s="6"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
@@ -34339,7 +34851,7 @@
       <c r="AK843" s="6"/>
       <c r="AL843" s="6"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:38">
       <c r="A844" s="6"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
@@ -34379,7 +34891,7 @@
       <c r="AK844" s="6"/>
       <c r="AL844" s="6"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:38">
       <c r="A845" s="6"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
@@ -34419,7 +34931,7 @@
       <c r="AK845" s="6"/>
       <c r="AL845" s="6"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:38">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -34459,7 +34971,7 @@
       <c r="AK846" s="6"/>
       <c r="AL846" s="6"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:38">
       <c r="A847" s="6"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
@@ -34499,7 +35011,7 @@
       <c r="AK847" s="6"/>
       <c r="AL847" s="6"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:38">
       <c r="A848" s="6"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
@@ -34539,7 +35051,7 @@
       <c r="AK848" s="6"/>
       <c r="AL848" s="6"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:38">
       <c r="A849" s="6"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
@@ -34579,7 +35091,7 @@
       <c r="AK849" s="6"/>
       <c r="AL849" s="6"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:38">
       <c r="A850" s="6"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
@@ -34619,7 +35131,7 @@
       <c r="AK850" s="6"/>
       <c r="AL850" s="6"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:38">
       <c r="A851" s="6"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
@@ -34659,7 +35171,7 @@
       <c r="AK851" s="6"/>
       <c r="AL851" s="6"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:38">
       <c r="A852" s="6"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
@@ -34699,7 +35211,7 @@
       <c r="AK852" s="6"/>
       <c r="AL852" s="6"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:38">
       <c r="A853" s="6"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
@@ -34739,7 +35251,7 @@
       <c r="AK853" s="6"/>
       <c r="AL853" s="6"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:38">
       <c r="A854" s="6"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
@@ -34779,7 +35291,7 @@
       <c r="AK854" s="6"/>
       <c r="AL854" s="6"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:38">
       <c r="A855" s="6"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
@@ -34819,7 +35331,7 @@
       <c r="AK855" s="6"/>
       <c r="AL855" s="6"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:38">
       <c r="A856" s="6"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
@@ -34859,7 +35371,7 @@
       <c r="AK856" s="6"/>
       <c r="AL856" s="6"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:38">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -34899,7 +35411,7 @@
       <c r="AK857" s="6"/>
       <c r="AL857" s="6"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:38">
       <c r="A858" s="6"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
@@ -34939,7 +35451,7 @@
       <c r="AK858" s="6"/>
       <c r="AL858" s="6"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:38">
       <c r="A859" s="6"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
@@ -34979,7 +35491,7 @@
       <c r="AK859" s="6"/>
       <c r="AL859" s="6"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:38">
       <c r="A860" s="6"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
@@ -35019,7 +35531,7 @@
       <c r="AK860" s="6"/>
       <c r="AL860" s="6"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:38">
       <c r="A861" s="6"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
@@ -35059,7 +35571,7 @@
       <c r="AK861" s="6"/>
       <c r="AL861" s="6"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:38">
       <c r="A862" s="6"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
@@ -35099,7 +35611,7 @@
       <c r="AK862" s="6"/>
       <c r="AL862" s="6"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:38">
       <c r="A863" s="6"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
@@ -35139,7 +35651,7 @@
       <c r="AK863" s="6"/>
       <c r="AL863" s="6"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:38">
       <c r="A864" s="6"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
@@ -35179,7 +35691,7 @@
       <c r="AK864" s="6"/>
       <c r="AL864" s="6"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:38">
       <c r="A865" s="6"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
@@ -35219,7 +35731,7 @@
       <c r="AK865" s="6"/>
       <c r="AL865" s="6"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:38">
       <c r="A866" s="6"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
@@ -35259,7 +35771,7 @@
       <c r="AK866" s="6"/>
       <c r="AL866" s="6"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:38">
       <c r="A867" s="6"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
@@ -35299,7 +35811,7 @@
       <c r="AK867" s="6"/>
       <c r="AL867" s="6"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:38">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -35339,7 +35851,7 @@
       <c r="AK868" s="6"/>
       <c r="AL868" s="6"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:38">
       <c r="A869" s="6"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
@@ -35379,7 +35891,7 @@
       <c r="AK869" s="6"/>
       <c r="AL869" s="6"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:38">
       <c r="A870" s="6"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
@@ -35419,7 +35931,7 @@
       <c r="AK870" s="6"/>
       <c r="AL870" s="6"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:38">
       <c r="A871" s="6"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
@@ -35459,7 +35971,7 @@
       <c r="AK871" s="6"/>
       <c r="AL871" s="6"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:38">
       <c r="A872" s="6"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
@@ -35499,7 +36011,7 @@
       <c r="AK872" s="6"/>
       <c r="AL872" s="6"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:38">
       <c r="A873" s="6"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
@@ -35539,7 +36051,7 @@
       <c r="AK873" s="6"/>
       <c r="AL873" s="6"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:38">
       <c r="A874" s="6"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
@@ -35579,7 +36091,7 @@
       <c r="AK874" s="6"/>
       <c r="AL874" s="6"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:38">
       <c r="A875" s="6"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
@@ -35619,7 +36131,7 @@
       <c r="AK875" s="6"/>
       <c r="AL875" s="6"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:38">
       <c r="A876" s="6"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
@@ -35659,7 +36171,7 @@
       <c r="AK876" s="6"/>
       <c r="AL876" s="6"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:38">
       <c r="A877" s="6"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
@@ -35699,7 +36211,7 @@
       <c r="AK877" s="6"/>
       <c r="AL877" s="6"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:38">
       <c r="A878" s="6"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
@@ -35739,7 +36251,7 @@
       <c r="AK878" s="6"/>
       <c r="AL878" s="6"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:38">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -35779,7 +36291,7 @@
       <c r="AK879" s="6"/>
       <c r="AL879" s="6"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:38">
       <c r="A880" s="6"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
@@ -35819,7 +36331,7 @@
       <c r="AK880" s="6"/>
       <c r="AL880" s="6"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:38">
       <c r="A881" s="6"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
@@ -35859,7 +36371,7 @@
       <c r="AK881" s="6"/>
       <c r="AL881" s="6"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:38">
       <c r="A882" s="6"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
@@ -35899,7 +36411,7 @@
       <c r="AK882" s="6"/>
       <c r="AL882" s="6"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:38">
       <c r="A883" s="6"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
@@ -35939,7 +36451,7 @@
       <c r="AK883" s="6"/>
       <c r="AL883" s="6"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:38">
       <c r="A884" s="6"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
@@ -35979,7 +36491,7 @@
       <c r="AK884" s="6"/>
       <c r="AL884" s="6"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:38">
       <c r="A885" s="6"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
@@ -36019,7 +36531,7 @@
       <c r="AK885" s="6"/>
       <c r="AL885" s="6"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:38">
       <c r="A886" s="6"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
@@ -36059,7 +36571,7 @@
       <c r="AK886" s="6"/>
       <c r="AL886" s="6"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:38">
       <c r="A887" s="6"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
@@ -36099,7 +36611,7 @@
       <c r="AK887" s="6"/>
       <c r="AL887" s="6"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:38">
       <c r="A888" s="6"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
@@ -36139,7 +36651,7 @@
       <c r="AK888" s="6"/>
       <c r="AL888" s="6"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:38">
       <c r="A889" s="6"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
@@ -36179,7 +36691,7 @@
       <c r="AK889" s="6"/>
       <c r="AL889" s="6"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:38">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -36219,7 +36731,7 @@
       <c r="AK890" s="6"/>
       <c r="AL890" s="6"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:38">
       <c r="A891" s="6"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
@@ -36259,7 +36771,7 @@
       <c r="AK891" s="6"/>
       <c r="AL891" s="6"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:38">
       <c r="A892" s="6"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
@@ -36299,7 +36811,7 @@
       <c r="AK892" s="6"/>
       <c r="AL892" s="6"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:38">
       <c r="A893" s="6"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
@@ -36339,7 +36851,7 @@
       <c r="AK893" s="6"/>
       <c r="AL893" s="6"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:38">
       <c r="A894" s="6"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
@@ -36379,7 +36891,7 @@
       <c r="AK894" s="6"/>
       <c r="AL894" s="6"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:38">
       <c r="A895" s="6"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
@@ -36419,7 +36931,7 @@
       <c r="AK895" s="6"/>
       <c r="AL895" s="6"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:38">
       <c r="A896" s="6"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
@@ -36459,7 +36971,7 @@
       <c r="AK896" s="6"/>
       <c r="AL896" s="6"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:38">
       <c r="A897" s="6"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
@@ -36499,7 +37011,7 @@
       <c r="AK897" s="6"/>
       <c r="AL897" s="6"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:38">
       <c r="A898" s="6"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
@@ -36539,7 +37051,7 @@
       <c r="AK898" s="6"/>
       <c r="AL898" s="6"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:38">
       <c r="A899" s="6"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
@@ -36579,7 +37091,7 @@
       <c r="AK899" s="6"/>
       <c r="AL899" s="6"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:38">
       <c r="A900" s="6"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
@@ -36619,7 +37131,7 @@
       <c r="AK900" s="6"/>
       <c r="AL900" s="6"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:38">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -36659,7 +37171,7 @@
       <c r="AK901" s="6"/>
       <c r="AL901" s="6"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:38">
       <c r="A902" s="6"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
@@ -36699,7 +37211,7 @@
       <c r="AK902" s="6"/>
       <c r="AL902" s="6"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:38">
       <c r="A903" s="6"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
@@ -36739,7 +37251,7 @@
       <c r="AK903" s="6"/>
       <c r="AL903" s="6"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:38">
       <c r="A904" s="6"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
@@ -36779,7 +37291,7 @@
       <c r="AK904" s="6"/>
       <c r="AL904" s="6"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:38">
       <c r="A905" s="6"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
@@ -36819,7 +37331,7 @@
       <c r="AK905" s="6"/>
       <c r="AL905" s="6"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:38">
       <c r="A906" s="6"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
@@ -36859,7 +37371,7 @@
       <c r="AK906" s="6"/>
       <c r="AL906" s="6"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:38">
       <c r="A907" s="6"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
@@ -36899,7 +37411,7 @@
       <c r="AK907" s="6"/>
       <c r="AL907" s="6"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:38">
       <c r="A908" s="6"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
@@ -36939,7 +37451,7 @@
       <c r="AK908" s="6"/>
       <c r="AL908" s="6"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:38">
       <c r="A909" s="6"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
@@ -36979,7 +37491,7 @@
       <c r="AK909" s="6"/>
       <c r="AL909" s="6"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:38">
       <c r="A910" s="6"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
@@ -37019,7 +37531,7 @@
       <c r="AK910" s="6"/>
       <c r="AL910" s="6"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:38">
       <c r="A911" s="6"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
@@ -37059,7 +37571,7 @@
       <c r="AK911" s="6"/>
       <c r="AL911" s="6"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:38">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -37099,7 +37611,7 @@
       <c r="AK912" s="6"/>
       <c r="AL912" s="6"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:38">
       <c r="A913" s="6"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
@@ -37139,7 +37651,7 @@
       <c r="AK913" s="6"/>
       <c r="AL913" s="6"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:38">
       <c r="A914" s="6"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
@@ -37179,7 +37691,7 @@
       <c r="AK914" s="6"/>
       <c r="AL914" s="6"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:38">
       <c r="A915" s="6"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
@@ -37219,7 +37731,7 @@
       <c r="AK915" s="6"/>
       <c r="AL915" s="6"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:38">
       <c r="A916" s="6"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
@@ -37259,7 +37771,7 @@
       <c r="AK916" s="6"/>
       <c r="AL916" s="6"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:38">
       <c r="A917" s="6"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
@@ -37299,7 +37811,7 @@
       <c r="AK917" s="6"/>
       <c r="AL917" s="6"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:38">
       <c r="A918" s="6"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
@@ -37339,7 +37851,7 @@
       <c r="AK918" s="6"/>
       <c r="AL918" s="6"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:38">
       <c r="A919" s="6"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
@@ -37379,7 +37891,7 @@
       <c r="AK919" s="6"/>
       <c r="AL919" s="6"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:38">
       <c r="A920" s="6"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
@@ -37419,7 +37931,7 @@
       <c r="AK920" s="6"/>
       <c r="AL920" s="6"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:38">
       <c r="A921" s="6"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
@@ -37459,7 +37971,7 @@
       <c r="AK921" s="6"/>
       <c r="AL921" s="6"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:38">
       <c r="A922" s="6"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
@@ -37499,7 +38011,7 @@
       <c r="AK922" s="6"/>
       <c r="AL922" s="6"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:38">
       <c r="A923" s="6"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
@@ -37539,7 +38051,7 @@
       <c r="AK923" s="6"/>
       <c r="AL923" s="6"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:38">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -37579,7 +38091,7 @@
       <c r="AK924" s="6"/>
       <c r="AL924" s="6"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:38">
       <c r="A925" s="6"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
@@ -37619,7 +38131,7 @@
       <c r="AK925" s="6"/>
       <c r="AL925" s="6"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:38">
       <c r="A926" s="6"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
@@ -37659,7 +38171,7 @@
       <c r="AK926" s="6"/>
       <c r="AL926" s="6"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:38">
       <c r="A927" s="6"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
@@ -37699,7 +38211,7 @@
       <c r="AK927" s="6"/>
       <c r="AL927" s="6"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:38">
       <c r="A928" s="6"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
@@ -37739,7 +38251,7 @@
       <c r="AK928" s="6"/>
       <c r="AL928" s="6"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:38">
       <c r="A929" s="6"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
@@ -37779,7 +38291,7 @@
       <c r="AK929" s="6"/>
       <c r="AL929" s="6"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:38">
       <c r="A930" s="6"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
@@ -37819,7 +38331,7 @@
       <c r="AK930" s="6"/>
       <c r="AL930" s="6"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:38">
       <c r="A931" s="6"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
@@ -37859,7 +38371,7 @@
       <c r="AK931" s="6"/>
       <c r="AL931" s="6"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:38">
       <c r="A932" s="6"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
@@ -37899,7 +38411,7 @@
       <c r="AK932" s="6"/>
       <c r="AL932" s="6"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:38">
       <c r="A933" s="6"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
@@ -37939,7 +38451,7 @@
       <c r="AK933" s="6"/>
       <c r="AL933" s="6"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:38">
       <c r="A934" s="6"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
@@ -37979,7 +38491,7 @@
       <c r="AK934" s="6"/>
       <c r="AL934" s="6"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:38">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -38019,7 +38531,7 @@
       <c r="AK935" s="6"/>
       <c r="AL935" s="6"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:38">
       <c r="A936" s="6"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
@@ -38059,7 +38571,7 @@
       <c r="AK936" s="6"/>
       <c r="AL936" s="6"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:38">
       <c r="A937" s="6"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
@@ -38099,7 +38611,7 @@
       <c r="AK937" s="6"/>
       <c r="AL937" s="6"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:38">
       <c r="A938" s="6"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
@@ -38139,7 +38651,7 @@
       <c r="AK938" s="6"/>
       <c r="AL938" s="6"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:38">
       <c r="A939" s="6"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
@@ -38179,7 +38691,7 @@
       <c r="AK939" s="6"/>
       <c r="AL939" s="6"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:38">
       <c r="A940" s="6"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
@@ -38219,7 +38731,7 @@
       <c r="AK940" s="6"/>
       <c r="AL940" s="6"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:38">
       <c r="A941" s="6"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
@@ -38259,7 +38771,7 @@
       <c r="AK941" s="6"/>
       <c r="AL941" s="6"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:38">
       <c r="A942" s="6"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
@@ -38299,7 +38811,7 @@
       <c r="AK942" s="6"/>
       <c r="AL942" s="6"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:38">
       <c r="A943" s="6"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
@@ -38339,7 +38851,7 @@
       <c r="AK943" s="6"/>
       <c r="AL943" s="6"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:38">
       <c r="A944" s="6"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
@@ -38379,7 +38891,7 @@
       <c r="AK944" s="6"/>
       <c r="AL944" s="6"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:38">
       <c r="A945" s="6"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
@@ -38419,7 +38931,7 @@
       <c r="AK945" s="6"/>
       <c r="AL945" s="6"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:38">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -38459,7 +38971,7 @@
       <c r="AK946" s="6"/>
       <c r="AL946" s="6"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:38">
       <c r="A947" s="6"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
@@ -38499,7 +39011,7 @@
       <c r="AK947" s="6"/>
       <c r="AL947" s="6"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:38">
       <c r="A948" s="6"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
@@ -38539,7 +39051,7 @@
       <c r="AK948" s="6"/>
       <c r="AL948" s="6"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:38">
       <c r="A949" s="6"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
@@ -38579,7 +39091,7 @@
       <c r="AK949" s="6"/>
       <c r="AL949" s="6"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:38">
       <c r="A950" s="6"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
@@ -38619,7 +39131,7 @@
       <c r="AK950" s="6"/>
       <c r="AL950" s="6"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:38">
       <c r="A951" s="6"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
@@ -38659,7 +39171,7 @@
       <c r="AK951" s="6"/>
       <c r="AL951" s="6"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:38">
       <c r="A952" s="6"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
@@ -38699,7 +39211,7 @@
       <c r="AK952" s="6"/>
       <c r="AL952" s="6"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:38">
       <c r="A953" s="6"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
@@ -38739,7 +39251,7 @@
       <c r="AK953" s="6"/>
       <c r="AL953" s="6"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:38">
       <c r="A954" s="6"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
@@ -38779,7 +39291,7 @@
       <c r="AK954" s="6"/>
       <c r="AL954" s="6"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:38">
       <c r="A955" s="6"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
@@ -38819,7 +39331,7 @@
       <c r="AK955" s="6"/>
       <c r="AL955" s="6"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:38">
       <c r="A956" s="6"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
@@ -38859,7 +39371,7 @@
       <c r="AK956" s="6"/>
       <c r="AL956" s="6"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:38">
       <c r="A957" s="6"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
@@ -38899,7 +39411,7 @@
       <c r="AK957" s="6"/>
       <c r="AL957" s="6"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:38">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -38940,6 +39452,6 @@
       <c r="AL958" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>